--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_13_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_13_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1719239.044286025</v>
+        <v>1715926.993213463</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7196800.635007236</v>
+        <v>7196800.635007235</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>407.4250577753879</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>128.2500952476802</v>
+        <v>115.5840578720275</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.2350241967096</v>
       </c>
       <c r="U11" t="n">
         <v>253.0667166552282</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>312.9178238973326</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355092</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
         <v>128.7880777047345</v>
@@ -1502,10 +1502,10 @@
         <v>117.6198168326376</v>
       </c>
       <c r="T12" t="n">
-        <v>171.7502977295325</v>
+        <v>171.750297729532</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9059774601759</v>
+        <v>207.9059774601763</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.518507518659</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.098252586491</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.2836698365084</v>
       </c>
       <c r="U13" t="n">
         <v>282.5451077791103</v>
@@ -1590,13 +1590,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>60.82628469647946</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>86.33198775479828</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>371.7087814008611</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>314.7158096850793</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>304.3940536830004</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>99.46340365787539</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.8510855690736</v>
       </c>
       <c r="H16" t="n">
-        <v>147.518507518659</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>230.2836698365084</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5451077791103</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>172.5451778264182</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28402819993485</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>253.722569465362</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>407.4250577753879</v>
       </c>
       <c r="H17" t="n">
         <v>304.3940536830004</v>
       </c>
       <c r="I17" t="n">
-        <v>75.0357250666065</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>214.2350241967096</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>92.63281757220982</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.9156712849516</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>188.2328313595025</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>407.4250577753879</v>
       </c>
       <c r="H20" t="n">
-        <v>304.3940536830004</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>128.2500952476802</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>8.523770214331966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0667166552282</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>230.7605306780729</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>91.56474109272628</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>188.2328313595025</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>230.2836698365084</v>
@@ -2298,16 +2298,16 @@
         <v>282.5451077791103</v>
       </c>
       <c r="V22" t="n">
-        <v>90.87954654087775</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>370.4382200228246</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2332,13 +2332,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>407.4250577753879</v>
       </c>
       <c r="H23" t="n">
-        <v>304.3940536830004</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>75.0357250666065</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>214.2350241967096</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0667166552282</v>
+        <v>138.8872150901676</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>38.50167272402543</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>53.68387854277762</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>188.2328313595025</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>230.2836698365084</v>
@@ -2535,7 +2535,7 @@
         <v>282.5451077791103</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -2563,7 +2563,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>376.4739326408417</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -2575,7 +2575,7 @@
         <v>304.3940536830004</v>
       </c>
       <c r="I26" t="n">
-        <v>75.0357250666065</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>42.02024883481917</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.8510855690736</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.68125959876978</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>90.26892618663325</v>
       </c>
       <c r="S28" t="n">
-        <v>188.2328313595025</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>230.2836698365084</v>
       </c>
       <c r="U28" t="n">
-        <v>137.6908419987475</v>
+        <v>282.5451077791103</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>282.3102966892213</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -2809,10 +2809,10 @@
         <v>407.4250577753879</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I29" t="n">
-        <v>75.0357250666065</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>128.2500952476802</v>
       </c>
       <c r="T29" t="n">
-        <v>214.2350241967096</v>
+        <v>192.1512672029311</v>
       </c>
       <c r="U29" t="n">
         <v>253.0667166552282</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.8510855690736</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.97307399651055</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>188.2328313595025</v>
       </c>
       <c r="T31" t="n">
-        <v>226.3467314046729</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5451077791103</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
@@ -3018,7 +3018,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>378.0952490094245</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -3043,13 +3043,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>407.4250577753879</v>
       </c>
       <c r="H32" t="n">
         <v>304.3940536830004</v>
       </c>
       <c r="I32" t="n">
-        <v>75.0357250666065</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>128.2500952476802</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>214.2350241967096</v>
@@ -3088,7 +3088,7 @@
         <v>253.0667166552282</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>48.36228120313562</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>53.68387854277762</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>188.2328313595025</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>230.2836698365084</v>
@@ -3246,13 +3246,13 @@
         <v>282.5451077791103</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>86.88525321448394</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>334.8725256980363</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>128.2500952476802</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.2350241967096</v>
       </c>
       <c r="U35" t="n">
         <v>253.0667166552282</v>
@@ -3331,10 +3331,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>119.5657202896233</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>188.2328313595025</v>
+        <v>100.6116098748974</v>
       </c>
       <c r="T37" t="n">
-        <v>230.2836698365084</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>282.5451077791103</v>
@@ -3486,13 +3486,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>185.7933878370852</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>193.2443034161332</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>8.270022210096354</v>
+        <v>407.4250577753879</v>
       </c>
       <c r="H38" t="n">
         <v>304.3940536830004</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>128.2500952476802</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>214.2350241967096</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.0667166552282</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>99.01599354188872</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.8510855690736</v>
+        <v>158.4186518173641</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.518507518659</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.098252586491</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>230.2836698365084</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5451077791103</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>296.7688479215125</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>407.4250577753879</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>75.0357250666065</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>214.2350241967096</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.0667166552282</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -3805,7 +3805,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>34.71602749052489</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>76.37712472738878</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>109.0695940280409</v>
       </c>
       <c r="G43" t="n">
         <v>165.8510855690736</v>
       </c>
       <c r="H43" t="n">
-        <v>147.518507518659</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.098252586491</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>188.2328313595025</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>230.2836698365084</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5451077791103</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3979,13 +3979,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>157.655463373305</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>407.4250577753879</v>
       </c>
       <c r="H44" t="n">
-        <v>132.0240706796324</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>128.2500952476802</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4115,7 +4115,7 @@
         <v>207.9059774601759</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126445</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>127.6875771194673</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.8510855690736</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T46" t="n">
         <v>230.2836698365084</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5451077791103</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -4203,7 +4203,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>200.3740287792378</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>841.3835906994093</v>
+        <v>949.8531268717293</v>
       </c>
       <c r="C11" t="n">
-        <v>448.2080892023399</v>
+        <v>949.8531268717293</v>
       </c>
       <c r="D11" t="n">
-        <v>448.2080892023399</v>
+        <v>949.8531268717293</v>
       </c>
       <c r="E11" t="n">
-        <v>45.6245643188844</v>
+        <v>949.8531268717293</v>
       </c>
       <c r="F11" t="n">
-        <v>45.6245643188844</v>
+        <v>532.958688401707</v>
       </c>
       <c r="G11" t="n">
-        <v>45.6245643188844</v>
+        <v>121.4182260023253</v>
       </c>
       <c r="H11" t="n">
-        <v>45.6245643188844</v>
+        <v>121.4182260023253</v>
       </c>
       <c r="I11" t="n">
-        <v>45.6245643188844</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="J11" t="n">
         <v>325.2244043032</v>
       </c>
       <c r="K11" t="n">
-        <v>385.8517535058461</v>
+        <v>811.3577032902379</v>
       </c>
       <c r="L11" t="n">
-        <v>907.4418463098818</v>
+        <v>910.5574362207177</v>
       </c>
       <c r="M11" t="n">
-        <v>1472.045829756076</v>
+        <v>1041.521387186788</v>
       </c>
       <c r="N11" t="n">
-        <v>1608.127889813614</v>
+        <v>1177.603447244326</v>
       </c>
       <c r="O11" t="n">
-        <v>2172.731873259809</v>
+        <v>1297.433957912906</v>
       </c>
       <c r="P11" t="n">
-        <v>2252.578791180274</v>
+        <v>1862.0379413591</v>
       </c>
       <c r="Q11" t="n">
-        <v>2281.22821594422</v>
+        <v>2218.586637698203</v>
       </c>
       <c r="R11" t="n">
-        <v>2281.22821594422</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="S11" t="n">
-        <v>2151.682665188987</v>
+        <v>2164.476642336111</v>
       </c>
       <c r="T11" t="n">
-        <v>2151.682665188987</v>
+        <v>1948.077627996</v>
       </c>
       <c r="U11" t="n">
-        <v>1896.059719072595</v>
+        <v>1692.454681879608</v>
       </c>
       <c r="V11" t="n">
-        <v>1553.952909776114</v>
+        <v>1350.347872583126</v>
       </c>
       <c r="W11" t="n">
-        <v>1553.952909776114</v>
+        <v>1350.347872583126</v>
       </c>
       <c r="X11" t="n">
-        <v>1237.874299778808</v>
+        <v>1350.347872583126</v>
       </c>
       <c r="Y11" t="n">
-        <v>841.3835906994093</v>
+        <v>1350.347872583126</v>
       </c>
     </row>
     <row r="12">
@@ -5096,58 +5096,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>805.8542565822768</v>
+        <v>805.8542565822762</v>
       </c>
       <c r="C12" t="n">
-        <v>655.2000261423685</v>
+        <v>655.2000261423684</v>
       </c>
       <c r="D12" t="n">
-        <v>525.1110587638489</v>
+        <v>525.1110587638487</v>
       </c>
       <c r="E12" t="n">
-        <v>388.6645678747366</v>
+        <v>388.6645678747365</v>
       </c>
       <c r="F12" t="n">
-        <v>264.2327617578684</v>
+        <v>264.2327617578683</v>
       </c>
       <c r="G12" t="n">
         <v>145.0409471682419</v>
       </c>
       <c r="H12" t="n">
-        <v>65.1266156433914</v>
+        <v>65.12661564339139</v>
       </c>
       <c r="I12" t="n">
-        <v>45.6245643188844</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="J12" t="n">
-        <v>45.6245643188844</v>
+        <v>239.1148819882602</v>
       </c>
       <c r="K12" t="n">
-        <v>442.6071462050356</v>
+        <v>287.7881662867853</v>
       </c>
       <c r="L12" t="n">
-        <v>1007.21112965123</v>
+        <v>852.3921497329795</v>
       </c>
       <c r="M12" t="n">
-        <v>1131.303476469976</v>
+        <v>976.4844965517254</v>
       </c>
       <c r="N12" t="n">
-        <v>1268.045797655948</v>
+        <v>1113.226817737697</v>
       </c>
       <c r="O12" t="n">
-        <v>1832.649781102142</v>
+        <v>1668.728760707514</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.889380974463</v>
+        <v>2233.332744153708</v>
       </c>
       <c r="Q12" t="n">
         <v>2251.849419974995</v>
       </c>
       <c r="R12" t="n">
-        <v>2281.22821594422</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="S12" t="n">
-        <v>2162.420320153677</v>
+        <v>2162.420320153676</v>
       </c>
       <c r="T12" t="n">
         <v>1988.935170931927</v>
@@ -5159,13 +5159,13 @@
         <v>1556.389131464432</v>
       </c>
       <c r="W12" t="n">
-        <v>1326.271885597719</v>
+        <v>1326.271885597718</v>
       </c>
       <c r="X12" t="n">
-        <v>1136.964807947731</v>
+        <v>1136.96480794773</v>
       </c>
       <c r="Y12" t="n">
-        <v>957.6505910232381</v>
+        <v>957.6505910232376</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>463.169448707073</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="C13" t="n">
-        <v>463.169448707073</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="D13" t="n">
-        <v>463.169448707073</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="E13" t="n">
-        <v>463.169448707073</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="F13" t="n">
-        <v>305.843513920046</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="G13" t="n">
-        <v>305.843513920046</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="H13" t="n">
-        <v>156.8349204668551</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="I13" t="n">
-        <v>45.6245643188844</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="J13" t="n">
         <v>66.27572420016884</v>
@@ -5208,13 +5208,13 @@
         <v>501.1388949376825</v>
       </c>
       <c r="M13" t="n">
-        <v>799.2315011068069</v>
+        <v>799.2315011068071</v>
       </c>
       <c r="N13" t="n">
         <v>1091.563784414643</v>
       </c>
       <c r="O13" t="n">
-        <v>1355.079453313001</v>
+        <v>1355.079453313002</v>
       </c>
       <c r="P13" t="n">
         <v>1561.216761249399</v>
@@ -5223,28 +5223,28 @@
         <v>1624.361701187858</v>
       </c>
       <c r="R13" t="n">
-        <v>1533.180967666006</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="S13" t="n">
-        <v>1533.180967666006</v>
+        <v>1434.227528097452</v>
       </c>
       <c r="T13" t="n">
-        <v>1533.180967666006</v>
+        <v>1201.617760585827</v>
       </c>
       <c r="U13" t="n">
-        <v>1247.781868899228</v>
+        <v>916.2186618190492</v>
       </c>
       <c r="V13" t="n">
-        <v>981.8025237200521</v>
+        <v>650.2393166398734</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3618321074466</v>
+        <v>366.9089145710511</v>
       </c>
       <c r="X13" t="n">
-        <v>686.2815098904297</v>
+        <v>132.8285923540342</v>
       </c>
       <c r="Y13" t="n">
-        <v>463.169448707073</v>
+        <v>45.62456431888439</v>
       </c>
     </row>
     <row r="14">
@@ -5254,64 +5254,64 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1538.626660936341</v>
+        <v>1142.135951856942</v>
       </c>
       <c r="C14" t="n">
-        <v>1145.451159439272</v>
+        <v>748.9604503598725</v>
       </c>
       <c r="D14" t="n">
-        <v>769.9877438828464</v>
+        <v>363.5193215765403</v>
       </c>
       <c r="E14" t="n">
-        <v>769.9877438828464</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="F14" t="n">
-        <v>353.0933054128242</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="G14" t="n">
-        <v>353.0933054128242</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="H14" t="n">
-        <v>45.6245643188844</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="I14" t="n">
-        <v>45.6245643188844</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="J14" t="n">
-        <v>64.07159183144927</v>
+        <v>325.2244043032</v>
       </c>
       <c r="K14" t="n">
-        <v>625.3091162090021</v>
+        <v>811.3577032902379</v>
       </c>
       <c r="L14" t="n">
-        <v>1189.913099655197</v>
+        <v>910.5574362207177</v>
       </c>
       <c r="M14" t="n">
-        <v>1320.877050621267</v>
+        <v>1041.521387186788</v>
       </c>
       <c r="N14" t="n">
-        <v>1456.959110678805</v>
+        <v>1177.603447244326</v>
       </c>
       <c r="O14" t="n">
-        <v>1576.789621347385</v>
+        <v>1297.433957912906</v>
       </c>
       <c r="P14" t="n">
-        <v>2141.393604793579</v>
+        <v>1862.0379413591</v>
       </c>
       <c r="Q14" t="n">
-        <v>2281.22821594422</v>
+        <v>2218.586637698203</v>
       </c>
       <c r="R14" t="n">
-        <v>2281.22821594422</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="S14" t="n">
-        <v>2281.22821594422</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="T14" t="n">
-        <v>2281.22821594422</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="U14" t="n">
-        <v>2281.22821594422</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="V14" t="n">
         <v>1939.121406647738</v>
@@ -5323,7 +5323,7 @@
         <v>1939.121406647738</v>
       </c>
       <c r="Y14" t="n">
-        <v>1939.121406647738</v>
+        <v>1542.630697568339</v>
       </c>
     </row>
     <row r="15">
@@ -5333,61 +5333,61 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>805.8542565822768</v>
+        <v>805.8542565822763</v>
       </c>
       <c r="C15" t="n">
-        <v>655.2000261423689</v>
+        <v>655.2000261423685</v>
       </c>
       <c r="D15" t="n">
-        <v>525.1110587638491</v>
+        <v>525.1110587638489</v>
       </c>
       <c r="E15" t="n">
-        <v>388.6645678747368</v>
+        <v>388.6645678747365</v>
       </c>
       <c r="F15" t="n">
-        <v>264.2327617578685</v>
+        <v>264.2327617578683</v>
       </c>
       <c r="G15" t="n">
         <v>145.0409471682419</v>
       </c>
       <c r="H15" t="n">
-        <v>65.1266156433914</v>
+        <v>65.12661564339139</v>
       </c>
       <c r="I15" t="n">
-        <v>45.6245643188844</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="J15" t="n">
-        <v>45.6245643188844</v>
+        <v>239.1148819882602</v>
       </c>
       <c r="K15" t="n">
-        <v>94.29784861740941</v>
+        <v>696.2282783290117</v>
       </c>
       <c r="L15" t="n">
-        <v>658.9018320636038</v>
+        <v>972.8010872984089</v>
       </c>
       <c r="M15" t="n">
-        <v>782.9941788823497</v>
+        <v>1096.893434117155</v>
       </c>
       <c r="N15" t="n">
-        <v>1347.598162328544</v>
+        <v>1233.635755303126</v>
       </c>
       <c r="O15" t="n">
-        <v>1698.107556676739</v>
+        <v>1344.285397528268</v>
       </c>
       <c r="P15" t="n">
-        <v>2262.711540122933</v>
+        <v>1908.889380974462</v>
       </c>
       <c r="Q15" t="n">
-        <v>2281.22821594422</v>
+        <v>2251.849419974995</v>
       </c>
       <c r="R15" t="n">
-        <v>2281.22821594422</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="S15" t="n">
-        <v>2162.420320153677</v>
+        <v>2162.420320153676</v>
       </c>
       <c r="T15" t="n">
-        <v>1988.935170931927</v>
+        <v>1988.935170931926</v>
       </c>
       <c r="U15" t="n">
         <v>1778.929133093365</v>
@@ -5399,10 +5399,10 @@
         <v>1326.271885597719</v>
       </c>
       <c r="X15" t="n">
-        <v>1136.964807947731</v>
+        <v>1136.96480794773</v>
       </c>
       <c r="Y15" t="n">
-        <v>957.6505910232381</v>
+        <v>957.6505910232377</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>606.2931675132625</v>
+        <v>524.3428386168375</v>
       </c>
       <c r="C16" t="n">
-        <v>606.2931675132625</v>
+        <v>524.3428386168375</v>
       </c>
       <c r="D16" t="n">
-        <v>450.6600544157772</v>
+        <v>368.7097255193522</v>
       </c>
       <c r="E16" t="n">
-        <v>295.1012422749797</v>
+        <v>213.1509133785547</v>
       </c>
       <c r="F16" t="n">
-        <v>194.6331577720753</v>
+        <v>213.1509133785547</v>
       </c>
       <c r="G16" t="n">
-        <v>194.6331577720753</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="H16" t="n">
-        <v>45.6245643188844</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="I16" t="n">
-        <v>45.6245643188844</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="J16" t="n">
         <v>66.27572420016884</v>
@@ -5445,13 +5445,13 @@
         <v>501.1388949376825</v>
       </c>
       <c r="M16" t="n">
-        <v>799.2315011068069</v>
+        <v>799.2315011068071</v>
       </c>
       <c r="N16" t="n">
         <v>1091.563784414643</v>
       </c>
       <c r="O16" t="n">
-        <v>1355.079453313001</v>
+        <v>1355.079453313002</v>
       </c>
       <c r="P16" t="n">
         <v>1561.216761249399</v>
@@ -5466,22 +5466,22 @@
         <v>1624.361701187858</v>
       </c>
       <c r="T16" t="n">
-        <v>1391.751933676233</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="U16" t="n">
-        <v>1106.352834909455</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="V16" t="n">
-        <v>840.3734897302794</v>
+        <v>1450.073642777335</v>
       </c>
       <c r="W16" t="n">
-        <v>840.3734897302794</v>
+        <v>1166.743240708512</v>
       </c>
       <c r="X16" t="n">
-        <v>606.2931675132625</v>
+        <v>932.6629184914955</v>
       </c>
       <c r="Y16" t="n">
-        <v>606.2931675132625</v>
+        <v>709.5508573081388</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1267.843746813313</v>
+        <v>1884.73750686482</v>
       </c>
       <c r="C17" t="n">
-        <v>1267.843746813313</v>
+        <v>1884.73750686482</v>
       </c>
       <c r="D17" t="n">
-        <v>1248.364930449743</v>
+        <v>1499.296378081488</v>
       </c>
       <c r="E17" t="n">
-        <v>845.7814055662873</v>
+        <v>1096.712853198033</v>
       </c>
       <c r="F17" t="n">
-        <v>428.8869670962651</v>
+        <v>840.4274294956468</v>
       </c>
       <c r="G17" t="n">
         <v>428.8869670962651</v>
@@ -5512,55 +5512,55 @@
         <v>121.4182260023253</v>
       </c>
       <c r="I17" t="n">
-        <v>45.6245643188844</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="J17" t="n">
-        <v>64.07159183144927</v>
+        <v>325.2244043032</v>
       </c>
       <c r="K17" t="n">
-        <v>124.6989410340954</v>
+        <v>886.461928680753</v>
       </c>
       <c r="L17" t="n">
-        <v>689.3029244802898</v>
+        <v>1451.065912126947</v>
       </c>
       <c r="M17" t="n">
-        <v>820.2668754463601</v>
+        <v>1588.920030958534</v>
       </c>
       <c r="N17" t="n">
-        <v>956.3489355038982</v>
+        <v>1725.002091016072</v>
       </c>
       <c r="O17" t="n">
-        <v>1520.952918950093</v>
+        <v>1844.832601684652</v>
       </c>
       <c r="P17" t="n">
-        <v>2085.556902396287</v>
+        <v>1924.679519605117</v>
       </c>
       <c r="Q17" t="n">
-        <v>2281.22821594422</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="R17" t="n">
-        <v>2281.22821594422</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="S17" t="n">
-        <v>2281.22821594422</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="T17" t="n">
-        <v>2064.829201604109</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="U17" t="n">
-        <v>2064.829201604109</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="V17" t="n">
-        <v>2064.829201604109</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="W17" t="n">
-        <v>2064.829201604109</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="X17" t="n">
-        <v>2064.829201604109</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="Y17" t="n">
-        <v>1668.33849252471</v>
+        <v>1884.73750686482</v>
       </c>
     </row>
     <row r="18">
@@ -5579,43 +5579,43 @@
         <v>525.1110587638489</v>
       </c>
       <c r="E18" t="n">
-        <v>388.6645678747366</v>
+        <v>388.6645678747365</v>
       </c>
       <c r="F18" t="n">
-        <v>264.2327617578684</v>
+        <v>264.2327617578683</v>
       </c>
       <c r="G18" t="n">
         <v>145.0409471682419</v>
       </c>
       <c r="H18" t="n">
-        <v>65.1266156433914</v>
+        <v>65.12661564339139</v>
       </c>
       <c r="I18" t="n">
-        <v>45.6245643188844</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="J18" t="n">
-        <v>45.6245643188844</v>
+        <v>239.1148819882602</v>
       </c>
       <c r="K18" t="n">
-        <v>94.29784861740941</v>
+        <v>696.2282783290117</v>
       </c>
       <c r="L18" t="n">
-        <v>189.8547377639867</v>
+        <v>791.785167475589</v>
       </c>
       <c r="M18" t="n">
-        <v>732.8206101789776</v>
+        <v>1096.893434117155</v>
       </c>
       <c r="N18" t="n">
-        <v>1297.424593625172</v>
+        <v>1233.635755303126</v>
       </c>
       <c r="O18" t="n">
-        <v>1862.028577071366</v>
+        <v>1344.285397528268</v>
       </c>
       <c r="P18" t="n">
-        <v>1938.268176943687</v>
+        <v>1908.889380974462</v>
       </c>
       <c r="Q18" t="n">
-        <v>2281.22821594422</v>
+        <v>2251.849419974995</v>
       </c>
       <c r="R18" t="n">
         <v>2281.228215944219</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>335.9465219346645</v>
+        <v>465.0312979485722</v>
       </c>
       <c r="C19" t="n">
-        <v>165.7414040006537</v>
+        <v>294.8261800145614</v>
       </c>
       <c r="D19" t="n">
-        <v>165.7414040006537</v>
+        <v>139.1930669170761</v>
       </c>
       <c r="E19" t="n">
-        <v>165.7414040006537</v>
+        <v>139.1930669170761</v>
       </c>
       <c r="F19" t="n">
-        <v>165.7414040006537</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="G19" t="n">
-        <v>165.7414040006537</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="H19" t="n">
-        <v>45.6245643188844</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="I19" t="n">
-        <v>45.6245643188844</v>
+        <v>45.62456431888439</v>
       </c>
       <c r="J19" t="n">
         <v>66.27572420016884</v>
@@ -5682,13 +5682,13 @@
         <v>501.1388949376825</v>
       </c>
       <c r="M19" t="n">
-        <v>799.2315011068069</v>
+        <v>799.2315011068071</v>
       </c>
       <c r="N19" t="n">
         <v>1091.563784414643</v>
       </c>
       <c r="O19" t="n">
-        <v>1355.079453313001</v>
+        <v>1355.079453313002</v>
       </c>
       <c r="P19" t="n">
         <v>1561.216761249399</v>
@@ -5697,28 +5697,28 @@
         <v>1624.361701187858</v>
       </c>
       <c r="R19" t="n">
-        <v>1533.180967666006</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="S19" t="n">
-        <v>1343.0467945756</v>
+        <v>1434.227528097452</v>
       </c>
       <c r="T19" t="n">
-        <v>1110.437027063975</v>
+        <v>1201.617760585827</v>
       </c>
       <c r="U19" t="n">
-        <v>825.0379282971969</v>
+        <v>916.2186618190492</v>
       </c>
       <c r="V19" t="n">
-        <v>559.0585831180211</v>
+        <v>650.2393166398734</v>
       </c>
       <c r="W19" t="n">
-        <v>559.0585831180211</v>
+        <v>650.2393166398734</v>
       </c>
       <c r="X19" t="n">
-        <v>559.0585831180211</v>
+        <v>650.2393166398734</v>
       </c>
       <c r="Y19" t="n">
-        <v>335.9465219346645</v>
+        <v>650.2393166398734</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1148.852331793349</v>
+        <v>1276.642990071744</v>
       </c>
       <c r="C20" t="n">
-        <v>755.6768302962796</v>
+        <v>1276.642990071744</v>
       </c>
       <c r="D20" t="n">
-        <v>755.6768302962796</v>
+        <v>1276.642990071744</v>
       </c>
       <c r="E20" t="n">
-        <v>353.0933054128242</v>
+        <v>874.0594651882884</v>
       </c>
       <c r="F20" t="n">
-        <v>353.0933054128242</v>
+        <v>457.1650267182661</v>
       </c>
       <c r="G20" t="n">
-        <v>353.0933054128242</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="H20" t="n">
         <v>45.6245643188844</v>
@@ -5755,49 +5755,49 @@
         <v>325.2244043032</v>
       </c>
       <c r="K20" t="n">
-        <v>385.8517535058461</v>
+        <v>830.7105183002528</v>
       </c>
       <c r="L20" t="n">
-        <v>485.0514864363258</v>
+        <v>1395.314501746447</v>
       </c>
       <c r="M20" t="n">
-        <v>616.0154374023962</v>
+        <v>1526.278452712518</v>
       </c>
       <c r="N20" t="n">
-        <v>752.0974974599342</v>
+        <v>1662.360512770056</v>
       </c>
       <c r="O20" t="n">
-        <v>1316.701480906129</v>
+        <v>1782.191023438636</v>
       </c>
       <c r="P20" t="n">
-        <v>1881.305464352323</v>
+        <v>1862.037941359101</v>
       </c>
       <c r="Q20" t="n">
-        <v>2218.586637698203</v>
+        <v>2218.586637698204</v>
       </c>
       <c r="R20" t="n">
         <v>2281.22821594422</v>
       </c>
       <c r="S20" t="n">
-        <v>2151.682665188987</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="T20" t="n">
-        <v>2143.072796285622</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="U20" t="n">
-        <v>1887.44985016923</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="V20" t="n">
-        <v>1545.343040872748</v>
+        <v>2048.136770814854</v>
       </c>
       <c r="W20" t="n">
-        <v>1545.343040872748</v>
+        <v>1677.137735783141</v>
       </c>
       <c r="X20" t="n">
-        <v>1545.343040872748</v>
+        <v>1677.137735783141</v>
       </c>
       <c r="Y20" t="n">
-        <v>1148.852331793349</v>
+        <v>1677.137735783141</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>805.8542565822763</v>
+        <v>805.8542565822772</v>
       </c>
       <c r="C21" t="n">
-        <v>655.2000261423685</v>
+        <v>655.2000261423693</v>
       </c>
       <c r="D21" t="n">
-        <v>525.1110587638489</v>
+        <v>525.1110587638495</v>
       </c>
       <c r="E21" t="n">
-        <v>388.6645678747366</v>
+        <v>388.6645678747373</v>
       </c>
       <c r="F21" t="n">
-        <v>264.2327617578684</v>
+        <v>264.232761757869</v>
       </c>
       <c r="G21" t="n">
         <v>145.0409471682419</v>
@@ -5831,52 +5831,52 @@
         <v>45.6245643188844</v>
       </c>
       <c r="J21" t="n">
-        <v>45.6245643188844</v>
+        <v>239.1148819882603</v>
       </c>
       <c r="K21" t="n">
-        <v>94.29784861740941</v>
+        <v>696.2282783290118</v>
       </c>
       <c r="L21" t="n">
-        <v>189.8547377639867</v>
+        <v>972.8010872984094</v>
       </c>
       <c r="M21" t="n">
-        <v>313.9470845827325</v>
+        <v>1096.893434117155</v>
       </c>
       <c r="N21" t="n">
-        <v>878.5510680289269</v>
+        <v>1233.635755303127</v>
       </c>
       <c r="O21" t="n">
-        <v>1344.285397528268</v>
+        <v>1344.285397528269</v>
       </c>
       <c r="P21" t="n">
-        <v>1908.889380974462</v>
+        <v>1908.889380974463</v>
       </c>
       <c r="Q21" t="n">
-        <v>2251.849419974995</v>
+        <v>2251.849419974996</v>
       </c>
       <c r="R21" t="n">
-        <v>2281.228215944219</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="S21" t="n">
-        <v>2162.420320153676</v>
+        <v>2162.420320153677</v>
       </c>
       <c r="T21" t="n">
-        <v>1988.935170931926</v>
+        <v>1988.935170931927</v>
       </c>
       <c r="U21" t="n">
-        <v>1778.929133093365</v>
+        <v>1778.929133093366</v>
       </c>
       <c r="V21" t="n">
-        <v>1556.389131464432</v>
+        <v>1556.389131464433</v>
       </c>
       <c r="W21" t="n">
-        <v>1326.271885597719</v>
+        <v>1326.27188559772</v>
       </c>
       <c r="X21" t="n">
-        <v>1136.96480794773</v>
+        <v>1136.964807947731</v>
       </c>
       <c r="Y21" t="n">
-        <v>957.6505910232377</v>
+        <v>957.6505910232386</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>215.8296822528952</v>
+        <v>463.9524328177807</v>
       </c>
       <c r="C22" t="n">
-        <v>45.6245643188844</v>
+        <v>293.7473148837699</v>
       </c>
       <c r="D22" t="n">
-        <v>45.6245643188844</v>
+        <v>138.1142017862847</v>
       </c>
       <c r="E22" t="n">
         <v>45.6245643188844</v>
@@ -5910,7 +5910,7 @@
         <v>45.6245643188844</v>
       </c>
       <c r="J22" t="n">
-        <v>66.27572420016884</v>
+        <v>66.27572420016885</v>
       </c>
       <c r="K22" t="n">
         <v>230.9743700006168</v>
@@ -5919,13 +5919,13 @@
         <v>501.1388949376825</v>
       </c>
       <c r="M22" t="n">
-        <v>799.2315011068069</v>
+        <v>799.2315011068071</v>
       </c>
       <c r="N22" t="n">
         <v>1091.563784414643</v>
       </c>
       <c r="O22" t="n">
-        <v>1355.079453313001</v>
+        <v>1355.079453313002</v>
       </c>
       <c r="P22" t="n">
         <v>1561.216761249399</v>
@@ -5934,28 +5934,28 @@
         <v>1624.361701187858</v>
       </c>
       <c r="R22" t="n">
-        <v>1533.180967666006</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="S22" t="n">
-        <v>1343.0467945756</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="T22" t="n">
-        <v>1110.437027063975</v>
+        <v>1391.751933676234</v>
       </c>
       <c r="U22" t="n">
-        <v>825.0379282971969</v>
+        <v>1106.352834909456</v>
       </c>
       <c r="V22" t="n">
-        <v>733.2404065387345</v>
+        <v>1106.352834909456</v>
       </c>
       <c r="W22" t="n">
-        <v>449.9100044699121</v>
+        <v>1106.352834909456</v>
       </c>
       <c r="X22" t="n">
-        <v>215.8296822528952</v>
+        <v>872.2725126924387</v>
       </c>
       <c r="Y22" t="n">
-        <v>215.8296822528952</v>
+        <v>649.160451509082</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2061.345016490772</v>
+        <v>2176.677846354471</v>
       </c>
       <c r="C23" t="n">
-        <v>1668.169514993703</v>
+        <v>1783.502344857401</v>
       </c>
       <c r="D23" t="n">
-        <v>1293.989494768627</v>
+        <v>1398.061216074069</v>
       </c>
       <c r="E23" t="n">
-        <v>891.4059698851718</v>
+        <v>995.4776911906137</v>
       </c>
       <c r="F23" t="n">
-        <v>474.5115314151495</v>
+        <v>578.5832527205914</v>
       </c>
       <c r="G23" t="n">
-        <v>474.5115314151495</v>
+        <v>167.0427903212097</v>
       </c>
       <c r="H23" t="n">
         <v>167.0427903212097</v>
       </c>
       <c r="I23" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="J23" t="n">
         <v>370.8489686220844</v>
@@ -5998,43 +5998,43 @@
         <v>1676.322205681833</v>
       </c>
       <c r="M23" t="n">
-        <v>2501.514857774233</v>
+        <v>2501.514857774234</v>
       </c>
       <c r="N23" t="n">
         <v>3313.03550789364</v>
       </c>
       <c r="O23" t="n">
-        <v>3566.433314482819</v>
+        <v>4020.973818504403</v>
       </c>
       <c r="P23" t="n">
-        <v>4143.266157303322</v>
+        <v>4143.266157303323</v>
       </c>
       <c r="Q23" t="n">
-        <v>4499.814853642424</v>
+        <v>4499.814853642425</v>
       </c>
       <c r="R23" t="n">
-        <v>4562.45643188844</v>
+        <v>4562.456431888441</v>
       </c>
       <c r="S23" t="n">
-        <v>4432.910881133208</v>
+        <v>4432.910881133209</v>
       </c>
       <c r="T23" t="n">
-        <v>4216.511866793097</v>
+        <v>4216.511866793098</v>
       </c>
       <c r="U23" t="n">
-        <v>3960.888920676705</v>
+        <v>4076.221750540404</v>
       </c>
       <c r="V23" t="n">
-        <v>3618.782111380224</v>
+        <v>3734.114941243922</v>
       </c>
       <c r="W23" t="n">
-        <v>3247.783076348511</v>
+        <v>3363.11590621221</v>
       </c>
       <c r="X23" t="n">
-        <v>2858.330471281568</v>
+        <v>2973.663301145266</v>
       </c>
       <c r="Y23" t="n">
-        <v>2461.839762202169</v>
+        <v>2577.172592065867</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>851.4788209011607</v>
+        <v>851.4788209011608</v>
       </c>
       <c r="C24" t="n">
-        <v>700.8245904612529</v>
+        <v>700.824590461253</v>
       </c>
       <c r="D24" t="n">
-        <v>570.7356230827332</v>
+        <v>570.7356230827334</v>
       </c>
       <c r="E24" t="n">
         <v>434.289132193621</v>
@@ -6059,31 +6059,31 @@
         <v>309.8573260767528</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6655114871263</v>
+        <v>190.6655114871264</v>
       </c>
       <c r="H24" t="n">
         <v>110.7511799622758</v>
       </c>
       <c r="I24" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="J24" t="n">
-        <v>91.24912863776881</v>
+        <v>284.7394463071447</v>
       </c>
       <c r="K24" t="n">
-        <v>139.9224129362938</v>
+        <v>741.8528426478962</v>
       </c>
       <c r="L24" t="n">
-        <v>235.4793020828711</v>
+        <v>1014.956135303648</v>
       </c>
       <c r="M24" t="n">
-        <v>1022.601416118932</v>
+        <v>1139.048482122394</v>
       </c>
       <c r="N24" t="n">
-        <v>1159.343737304903</v>
+        <v>1275.790803308365</v>
       </c>
       <c r="O24" t="n">
-        <v>1878.274345421026</v>
+        <v>1386.440445533507</v>
       </c>
       <c r="P24" t="n">
         <v>1954.513945293347</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.1397071468854</v>
+        <v>145.4752685799685</v>
       </c>
       <c r="C25" t="n">
-        <v>91.24912863776881</v>
+        <v>145.4752685799685</v>
       </c>
       <c r="D25" t="n">
-        <v>91.24912863776881</v>
+        <v>145.4752685799685</v>
       </c>
       <c r="E25" t="n">
-        <v>91.24912863776881</v>
+        <v>145.4752685799685</v>
       </c>
       <c r="F25" t="n">
-        <v>91.24912863776881</v>
+        <v>145.4752685799685</v>
       </c>
       <c r="G25" t="n">
-        <v>91.24912863776881</v>
+        <v>145.4752685799685</v>
       </c>
       <c r="H25" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="I25" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="J25" t="n">
-        <v>111.9002885190532</v>
+        <v>111.9002885190533</v>
       </c>
       <c r="K25" t="n">
         <v>276.5989343195013</v>
@@ -6168,31 +6168,31 @@
         <v>1606.841325568284</v>
       </c>
       <c r="Q25" t="n">
-        <v>1669.986265506742</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="R25" t="n">
-        <v>1578.80553198489</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="S25" t="n">
-        <v>1388.671358894484</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="T25" t="n">
-        <v>1156.061591382859</v>
+        <v>1437.376497995118</v>
       </c>
       <c r="U25" t="n">
-        <v>870.6624926160814</v>
+        <v>1151.97739922834</v>
       </c>
       <c r="V25" t="n">
-        <v>870.6624926160814</v>
+        <v>885.9980540491644</v>
       </c>
       <c r="W25" t="n">
-        <v>587.332090547259</v>
+        <v>602.667651980342</v>
       </c>
       <c r="X25" t="n">
-        <v>353.251768330242</v>
+        <v>368.5873297633251</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.1397071468854</v>
+        <v>145.4752685799685</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2461.839762202169</v>
+        <v>2408.35292576497</v>
       </c>
       <c r="C26" t="n">
-        <v>2068.664260705099</v>
+        <v>2015.1774242679</v>
       </c>
       <c r="D26" t="n">
-        <v>1683.223131921767</v>
+        <v>1629.736295484568</v>
       </c>
       <c r="E26" t="n">
-        <v>1302.946432284553</v>
+        <v>1227.152770601112</v>
       </c>
       <c r="F26" t="n">
-        <v>886.0519938145312</v>
+        <v>810.2583321310904</v>
       </c>
       <c r="G26" t="n">
-        <v>474.5115314151495</v>
+        <v>398.7178697317086</v>
       </c>
       <c r="H26" t="n">
-        <v>167.0427903212097</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="I26" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="J26" t="n">
         <v>370.8489686220844</v>
       </c>
       <c r="K26" t="n">
-        <v>477.5459889780526</v>
+        <v>932.0864929996374</v>
       </c>
       <c r="L26" t="n">
-        <v>1221.781701660248</v>
+        <v>1676.322205681833</v>
       </c>
       <c r="M26" t="n">
-        <v>2046.974353752649</v>
+        <v>2501.514857774234</v>
       </c>
       <c r="N26" t="n">
-        <v>2858.495003872055</v>
+        <v>3313.03550789364</v>
       </c>
       <c r="O26" t="n">
-        <v>3566.433314482819</v>
+        <v>4020.973818504403</v>
       </c>
       <c r="P26" t="n">
-        <v>4143.266157303322</v>
+        <v>4205.907735549339</v>
       </c>
       <c r="Q26" t="n">
-        <v>4499.814853642424</v>
+        <v>4562.456431888441</v>
       </c>
       <c r="R26" t="n">
-        <v>4562.45643188844</v>
+        <v>4562.456431888441</v>
       </c>
       <c r="S26" t="n">
-        <v>4432.910881133208</v>
+        <v>4432.910881133209</v>
       </c>
       <c r="T26" t="n">
-        <v>4216.511866793097</v>
+        <v>4216.511866793098</v>
       </c>
       <c r="U26" t="n">
-        <v>3960.888920676705</v>
+        <v>3960.888920676706</v>
       </c>
       <c r="V26" t="n">
-        <v>3618.782111380224</v>
+        <v>3618.782111380225</v>
       </c>
       <c r="W26" t="n">
-        <v>3247.783076348511</v>
+        <v>3247.783076348512</v>
       </c>
       <c r="X26" t="n">
-        <v>2858.330471281568</v>
+        <v>3205.338380555766</v>
       </c>
       <c r="Y26" t="n">
-        <v>2461.839762202169</v>
+        <v>2808.847671476366</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>851.4788209011607</v>
+        <v>851.4788209011608</v>
       </c>
       <c r="C27" t="n">
-        <v>700.8245904612529</v>
+        <v>700.824590461253</v>
       </c>
       <c r="D27" t="n">
-        <v>570.7356230827332</v>
+        <v>570.7356230827334</v>
       </c>
       <c r="E27" t="n">
         <v>434.289132193621</v>
@@ -6296,25 +6296,25 @@
         <v>309.8573260767528</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6655114871263</v>
+        <v>190.6655114871264</v>
       </c>
       <c r="H27" t="n">
         <v>110.7511799622758</v>
       </c>
       <c r="I27" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="J27" t="n">
-        <v>91.24912863776881</v>
+        <v>284.7394463071447</v>
       </c>
       <c r="K27" t="n">
-        <v>139.9224129362938</v>
+        <v>741.8528426478962</v>
       </c>
       <c r="L27" t="n">
-        <v>235.4793020828711</v>
+        <v>1014.956135303648</v>
       </c>
       <c r="M27" t="n">
-        <v>398.7521191862094</v>
+        <v>1139.048482122394</v>
       </c>
       <c r="N27" t="n">
         <v>1275.790803308365</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.24912863776881</v>
+        <v>511.4869184584902</v>
       </c>
       <c r="C28" t="n">
-        <v>91.24912863776881</v>
+        <v>341.2818005244794</v>
       </c>
       <c r="D28" t="n">
-        <v>91.24912863776881</v>
+        <v>341.2818005244794</v>
       </c>
       <c r="E28" t="n">
-        <v>91.24912863776881</v>
+        <v>341.2818005244794</v>
       </c>
       <c r="F28" t="n">
-        <v>91.24912863776881</v>
+        <v>341.2818005244794</v>
       </c>
       <c r="G28" t="n">
-        <v>91.24912863776881</v>
+        <v>173.755451464809</v>
       </c>
       <c r="H28" t="n">
-        <v>91.24912863776881</v>
+        <v>173.755451464809</v>
       </c>
       <c r="I28" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="J28" t="n">
-        <v>111.9002885190532</v>
+        <v>111.9002885190533</v>
       </c>
       <c r="K28" t="n">
         <v>276.5989343195013</v>
@@ -6405,31 +6405,31 @@
         <v>1606.841325568284</v>
       </c>
       <c r="Q28" t="n">
-        <v>1669.986265506742</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="R28" t="n">
-        <v>1578.80553198489</v>
+        <v>1578.805531984891</v>
       </c>
       <c r="S28" t="n">
-        <v>1388.671358894484</v>
+        <v>1578.805531984891</v>
       </c>
       <c r="T28" t="n">
-        <v>1156.061591382859</v>
+        <v>1346.195764473266</v>
       </c>
       <c r="U28" t="n">
-        <v>1016.979932798266</v>
+        <v>1060.796665706488</v>
       </c>
       <c r="V28" t="n">
-        <v>1016.979932798266</v>
+        <v>794.8173205273125</v>
       </c>
       <c r="W28" t="n">
-        <v>733.6495307294437</v>
+        <v>511.4869184584902</v>
       </c>
       <c r="X28" t="n">
-        <v>499.5692085124267</v>
+        <v>511.4869184584902</v>
       </c>
       <c r="Y28" t="n">
-        <v>276.4571473290701</v>
+        <v>511.4869184584902</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2176.677846354471</v>
+        <v>2484.146587448411</v>
       </c>
       <c r="C29" t="n">
-        <v>1783.502344857401</v>
+        <v>2090.971085951341</v>
       </c>
       <c r="D29" t="n">
-        <v>1398.061216074069</v>
+        <v>1705.529957168009</v>
       </c>
       <c r="E29" t="n">
-        <v>995.4776911906137</v>
+        <v>1302.946432284553</v>
       </c>
       <c r="F29" t="n">
-        <v>578.5832527205914</v>
+        <v>886.0519938145312</v>
       </c>
       <c r="G29" t="n">
-        <v>167.0427903212097</v>
+        <v>474.5115314151495</v>
       </c>
       <c r="H29" t="n">
         <v>167.0427903212097</v>
       </c>
       <c r="I29" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="J29" t="n">
         <v>370.8489686220844</v>
       </c>
       <c r="K29" t="n">
-        <v>477.5459889780526</v>
+        <v>932.0864929996374</v>
       </c>
       <c r="L29" t="n">
-        <v>1221.781701660248</v>
+        <v>1676.322205681833</v>
       </c>
       <c r="M29" t="n">
-        <v>2046.974353752649</v>
+        <v>2501.514857774234</v>
       </c>
       <c r="N29" t="n">
-        <v>2858.495003872055</v>
+        <v>3313.03550789364</v>
       </c>
       <c r="O29" t="n">
-        <v>3566.433314482819</v>
+        <v>4020.973818504403</v>
       </c>
       <c r="P29" t="n">
-        <v>4143.266157303322</v>
+        <v>4143.266157303323</v>
       </c>
       <c r="Q29" t="n">
-        <v>4499.814853642424</v>
+        <v>4499.814853642425</v>
       </c>
       <c r="R29" t="n">
-        <v>4562.45643188844</v>
+        <v>4562.456431888441</v>
       </c>
       <c r="S29" t="n">
-        <v>4432.910881133208</v>
+        <v>4432.910881133209</v>
       </c>
       <c r="T29" t="n">
-        <v>4216.511866793097</v>
+        <v>4238.818692039339</v>
       </c>
       <c r="U29" t="n">
-        <v>3960.888920676705</v>
+        <v>3983.195745922947</v>
       </c>
       <c r="V29" t="n">
-        <v>3618.782111380224</v>
+        <v>3641.088936626466</v>
       </c>
       <c r="W29" t="n">
-        <v>3247.783076348511</v>
+        <v>3270.089901594753</v>
       </c>
       <c r="X29" t="n">
-        <v>2858.330471281568</v>
+        <v>2880.63729652781</v>
       </c>
       <c r="Y29" t="n">
-        <v>2461.839762202169</v>
+        <v>2484.146587448411</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>851.4788209011607</v>
+        <v>851.4788209011608</v>
       </c>
       <c r="C30" t="n">
-        <v>700.8245904612529</v>
+        <v>700.824590461253</v>
       </c>
       <c r="D30" t="n">
-        <v>570.7356230827332</v>
+        <v>570.7356230827334</v>
       </c>
       <c r="E30" t="n">
         <v>434.289132193621</v>
@@ -6533,31 +6533,31 @@
         <v>309.8573260767528</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6655114871263</v>
+        <v>190.6655114871264</v>
       </c>
       <c r="H30" t="n">
         <v>110.7511799622758</v>
       </c>
       <c r="I30" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="J30" t="n">
-        <v>91.24912863776881</v>
+        <v>284.7394463071447</v>
       </c>
       <c r="K30" t="n">
-        <v>139.9224129362938</v>
+        <v>741.8528426478962</v>
       </c>
       <c r="L30" t="n">
-        <v>808.2051313695333</v>
+        <v>837.4097317944735</v>
       </c>
       <c r="M30" t="n">
-        <v>932.2974781882792</v>
+        <v>961.5020786132194</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.624703195884</v>
+        <v>1098.244399799191</v>
       </c>
       <c r="O30" t="n">
-        <v>1878.274345421026</v>
+        <v>1386.440445533507</v>
       </c>
       <c r="P30" t="n">
         <v>1954.513945293347</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>91.24912863776881</v>
+        <v>648.1485734252884</v>
       </c>
       <c r="C31" t="n">
-        <v>91.24912863776881</v>
+        <v>477.9434554912776</v>
       </c>
       <c r="D31" t="n">
-        <v>91.24912863776881</v>
+        <v>477.9434554912776</v>
       </c>
       <c r="E31" t="n">
-        <v>91.24912863776881</v>
+        <v>322.3846433504801</v>
       </c>
       <c r="F31" t="n">
-        <v>91.24912863776881</v>
+        <v>322.3846433504801</v>
       </c>
       <c r="G31" t="n">
-        <v>91.24912863776881</v>
+        <v>154.8582942908098</v>
       </c>
       <c r="H31" t="n">
-        <v>91.24912863776881</v>
+        <v>154.8582942908098</v>
       </c>
       <c r="I31" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="J31" t="n">
-        <v>111.9002885190532</v>
+        <v>111.9002885190533</v>
       </c>
       <c r="K31" t="n">
         <v>276.5989343195013</v>
@@ -6642,31 +6642,31 @@
         <v>1606.841325568284</v>
       </c>
       <c r="Q31" t="n">
-        <v>1669.986265506742</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="R31" t="n">
-        <v>1578.80553198489</v>
+        <v>1578.805531984891</v>
       </c>
       <c r="S31" t="n">
         <v>1388.671358894484</v>
       </c>
       <c r="T31" t="n">
-        <v>1160.038296869562</v>
+        <v>1388.671358894484</v>
       </c>
       <c r="U31" t="n">
-        <v>874.6391981027838</v>
+        <v>1388.671358894484</v>
       </c>
       <c r="V31" t="n">
-        <v>608.659852923608</v>
+        <v>1388.671358894484</v>
       </c>
       <c r="W31" t="n">
-        <v>325.3294508547857</v>
+        <v>1105.340956825662</v>
       </c>
       <c r="X31" t="n">
-        <v>91.24912863776881</v>
+        <v>871.2606346086451</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.24912863776881</v>
+        <v>648.1485734252884</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2061.345016490772</v>
+        <v>2484.146587448411</v>
       </c>
       <c r="C32" t="n">
-        <v>1679.43062355196</v>
+        <v>2090.971085951341</v>
       </c>
       <c r="D32" t="n">
-        <v>1293.989494768627</v>
+        <v>1705.529957168009</v>
       </c>
       <c r="E32" t="n">
-        <v>891.4059698851718</v>
+        <v>1302.946432284553</v>
       </c>
       <c r="F32" t="n">
-        <v>474.5115314151495</v>
+        <v>886.0519938145312</v>
       </c>
       <c r="G32" t="n">
         <v>474.5115314151495</v>
@@ -6697,7 +6697,7 @@
         <v>167.0427903212097</v>
       </c>
       <c r="I32" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="J32" t="n">
         <v>370.8489686220844</v>
@@ -6709,43 +6709,43 @@
         <v>1676.322205681833</v>
       </c>
       <c r="M32" t="n">
-        <v>2501.514857774233</v>
+        <v>2501.514857774234</v>
       </c>
       <c r="N32" t="n">
-        <v>2858.495003872055</v>
+        <v>3313.03550789364</v>
       </c>
       <c r="O32" t="n">
-        <v>3566.433314482819</v>
+        <v>4020.973818504403</v>
       </c>
       <c r="P32" t="n">
-        <v>4143.266157303322</v>
+        <v>4205.907735549339</v>
       </c>
       <c r="Q32" t="n">
-        <v>4499.814853642424</v>
+        <v>4562.456431888441</v>
       </c>
       <c r="R32" t="n">
-        <v>4562.45643188844</v>
+        <v>4562.456431888441</v>
       </c>
       <c r="S32" t="n">
-        <v>4432.910881133208</v>
+        <v>4562.456431888441</v>
       </c>
       <c r="T32" t="n">
-        <v>4216.511866793097</v>
+        <v>4346.057417548331</v>
       </c>
       <c r="U32" t="n">
-        <v>3960.888920676705</v>
+        <v>4090.434471431939</v>
       </c>
       <c r="V32" t="n">
-        <v>3618.782111380224</v>
+        <v>4041.583682337862</v>
       </c>
       <c r="W32" t="n">
-        <v>3247.783076348511</v>
+        <v>3670.58464730615</v>
       </c>
       <c r="X32" t="n">
-        <v>2858.330471281568</v>
+        <v>3281.132042239206</v>
       </c>
       <c r="Y32" t="n">
-        <v>2461.839762202169</v>
+        <v>2884.641333159807</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>851.4788209011607</v>
+        <v>851.4788209011608</v>
       </c>
       <c r="C33" t="n">
-        <v>700.8245904612529</v>
+        <v>700.824590461253</v>
       </c>
       <c r="D33" t="n">
-        <v>570.7356230827332</v>
+        <v>570.7356230827334</v>
       </c>
       <c r="E33" t="n">
         <v>434.289132193621</v>
@@ -6770,28 +6770,28 @@
         <v>309.8573260767528</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6655114871263</v>
+        <v>190.6655114871264</v>
       </c>
       <c r="H33" t="n">
         <v>110.7511799622758</v>
       </c>
       <c r="I33" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="J33" t="n">
-        <v>91.24912863776881</v>
+        <v>284.7394463071447</v>
       </c>
       <c r="K33" t="n">
-        <v>139.9224129362938</v>
+        <v>741.8528426478962</v>
       </c>
       <c r="L33" t="n">
-        <v>235.4793020828711</v>
+        <v>1014.956135303648</v>
       </c>
       <c r="M33" t="n">
-        <v>530.7675162314125</v>
+        <v>1139.048482122394</v>
       </c>
       <c r="N33" t="n">
-        <v>667.5098374173842</v>
+        <v>1275.790803308365</v>
       </c>
       <c r="O33" t="n">
         <v>1386.440445533507</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="C34" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="D34" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="E34" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="F34" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="G34" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="H34" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="I34" t="n">
-        <v>91.24912863776881</v>
+        <v>91.24912863776883</v>
       </c>
       <c r="J34" t="n">
-        <v>111.9002885190532</v>
+        <v>111.9002885190533</v>
       </c>
       <c r="K34" t="n">
         <v>276.5989343195013</v>
@@ -6879,31 +6879,31 @@
         <v>1606.841325568284</v>
       </c>
       <c r="Q34" t="n">
-        <v>1669.986265506742</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="R34" t="n">
-        <v>1578.80553198489</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="S34" t="n">
-        <v>1388.671358894484</v>
+        <v>1669.986265506743</v>
       </c>
       <c r="T34" t="n">
-        <v>1156.061591382859</v>
+        <v>1437.376497995118</v>
       </c>
       <c r="U34" t="n">
-        <v>870.6624926160814</v>
+        <v>1151.97739922834</v>
       </c>
       <c r="V34" t="n">
-        <v>870.6624926160814</v>
+        <v>885.9980540491644</v>
       </c>
       <c r="W34" t="n">
-        <v>587.332090547259</v>
+        <v>602.667651980342</v>
       </c>
       <c r="X34" t="n">
-        <v>499.5692085124267</v>
+        <v>368.5873297633251</v>
       </c>
       <c r="Y34" t="n">
-        <v>276.4571473290701</v>
+        <v>145.4752685799685</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>786.4631656650029</v>
+        <v>845.7814055662873</v>
       </c>
       <c r="C35" t="n">
-        <v>786.4631656650029</v>
+        <v>845.7814055662873</v>
       </c>
       <c r="D35" t="n">
-        <v>448.2080892023399</v>
+        <v>845.7814055662873</v>
       </c>
       <c r="E35" t="n">
-        <v>45.6245643188844</v>
+        <v>845.7814055662873</v>
       </c>
       <c r="F35" t="n">
-        <v>45.6245643188844</v>
+        <v>428.8869670962651</v>
       </c>
       <c r="G35" t="n">
-        <v>45.6245643188844</v>
+        <v>428.8869670962651</v>
       </c>
       <c r="H35" t="n">
-        <v>45.6245643188844</v>
+        <v>121.4182260023253</v>
       </c>
       <c r="I35" t="n">
         <v>45.6245643188844</v>
@@ -6940,49 +6940,49 @@
         <v>325.2244043032</v>
       </c>
       <c r="K35" t="n">
-        <v>787.6113356413024</v>
+        <v>385.8517535058461</v>
       </c>
       <c r="L35" t="n">
-        <v>1352.215319087497</v>
+        <v>950.4557369520405</v>
       </c>
       <c r="M35" t="n">
-        <v>1916.819302533691</v>
+        <v>1081.419687918111</v>
       </c>
       <c r="N35" t="n">
-        <v>2052.901362591229</v>
+        <v>1646.023671364305</v>
       </c>
       <c r="O35" t="n">
-        <v>2172.731873259809</v>
+        <v>1765.854182032885</v>
       </c>
       <c r="P35" t="n">
-        <v>2252.578791180275</v>
+        <v>1862.037941359101</v>
       </c>
       <c r="Q35" t="n">
-        <v>2281.22821594422</v>
+        <v>2218.586637698203</v>
       </c>
       <c r="R35" t="n">
         <v>2281.22821594422</v>
       </c>
       <c r="S35" t="n">
-        <v>2151.682665188988</v>
+        <v>2151.682665188987</v>
       </c>
       <c r="T35" t="n">
-        <v>2151.682665188988</v>
+        <v>1935.283650848877</v>
       </c>
       <c r="U35" t="n">
-        <v>1896.059719072596</v>
+        <v>1679.660704732485</v>
       </c>
       <c r="V35" t="n">
-        <v>1553.952909776114</v>
+        <v>1337.553895436003</v>
       </c>
       <c r="W35" t="n">
-        <v>1182.953874744402</v>
+        <v>966.5548604042906</v>
       </c>
       <c r="X35" t="n">
-        <v>1182.953874744402</v>
+        <v>845.7814055662873</v>
       </c>
       <c r="Y35" t="n">
-        <v>786.4631656650029</v>
+        <v>845.7814055662873</v>
       </c>
     </row>
     <row r="36">
@@ -7016,19 +7016,19 @@
         <v>45.6245643188844</v>
       </c>
       <c r="J36" t="n">
-        <v>45.6245643188844</v>
+        <v>239.1148819882603</v>
       </c>
       <c r="K36" t="n">
-        <v>94.29784861740941</v>
+        <v>696.2282783290118</v>
       </c>
       <c r="L36" t="n">
-        <v>518.8467460773556</v>
+        <v>972.8010872984084</v>
       </c>
       <c r="M36" t="n">
-        <v>642.9390928961016</v>
+        <v>1096.893434117154</v>
       </c>
       <c r="N36" t="n">
-        <v>779.6814140820733</v>
+        <v>1233.635755303126</v>
       </c>
       <c r="O36" t="n">
         <v>1344.285397528268</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>371.3884943936927</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="C37" t="n">
-        <v>201.1833764596819</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="D37" t="n">
-        <v>201.1833764596819</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="E37" t="n">
         <v>45.6245643188844</v>
@@ -7104,13 +7104,13 @@
         <v>501.1388949376825</v>
       </c>
       <c r="M37" t="n">
-        <v>799.2315011068069</v>
+        <v>799.2315011068071</v>
       </c>
       <c r="N37" t="n">
         <v>1091.563784414643</v>
       </c>
       <c r="O37" t="n">
-        <v>1355.079453313001</v>
+        <v>1355.079453313002</v>
       </c>
       <c r="P37" t="n">
         <v>1561.216761249399</v>
@@ -7119,28 +7119,28 @@
         <v>1624.361701187858</v>
       </c>
       <c r="R37" t="n">
-        <v>1533.180967666006</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="S37" t="n">
-        <v>1343.0467945756</v>
+        <v>1522.733812425336</v>
       </c>
       <c r="T37" t="n">
-        <v>1110.437027063975</v>
+        <v>1522.733812425336</v>
       </c>
       <c r="U37" t="n">
-        <v>825.0379282971969</v>
+        <v>1237.334713658558</v>
       </c>
       <c r="V37" t="n">
-        <v>559.0585831180211</v>
+        <v>971.3553684793817</v>
       </c>
       <c r="W37" t="n">
-        <v>371.3884943936927</v>
+        <v>688.0249664105593</v>
       </c>
       <c r="X37" t="n">
-        <v>371.3884943936927</v>
+        <v>453.9446441935423</v>
       </c>
       <c r="Y37" t="n">
-        <v>371.3884943936927</v>
+        <v>230.8325830101857</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>778.3413016708225</v>
+        <v>1438.207220456005</v>
       </c>
       <c r="C38" t="n">
-        <v>778.3413016708225</v>
+        <v>1243.010954379102</v>
       </c>
       <c r="D38" t="n">
-        <v>778.3413016708225</v>
+        <v>1243.010954379102</v>
       </c>
       <c r="E38" t="n">
-        <v>778.3413016708225</v>
+        <v>840.4274294956468</v>
       </c>
       <c r="F38" t="n">
-        <v>361.4468632008003</v>
+        <v>840.4274294956468</v>
       </c>
       <c r="G38" t="n">
-        <v>353.0933054128242</v>
+        <v>428.8869670962651</v>
       </c>
       <c r="H38" t="n">
-        <v>45.6245643188844</v>
+        <v>121.4182260023253</v>
       </c>
       <c r="I38" t="n">
         <v>45.6245643188844</v>
       </c>
       <c r="J38" t="n">
-        <v>64.07159183144927</v>
+        <v>325.2244043032</v>
       </c>
       <c r="K38" t="n">
-        <v>124.6989410340954</v>
+        <v>385.8517535058461</v>
       </c>
       <c r="L38" t="n">
-        <v>516.9009964887085</v>
+        <v>950.4557369520405</v>
       </c>
       <c r="M38" t="n">
-        <v>1081.504979934903</v>
+        <v>1081.419687918111</v>
       </c>
       <c r="N38" t="n">
-        <v>1217.587039992441</v>
+        <v>1217.501747975649</v>
       </c>
       <c r="O38" t="n">
-        <v>1782.191023438636</v>
+        <v>1360.075536158923</v>
       </c>
       <c r="P38" t="n">
-        <v>1862.037941359101</v>
+        <v>1924.679519605118</v>
       </c>
       <c r="Q38" t="n">
-        <v>2218.586637698204</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="R38" t="n">
         <v>2281.22821594422</v>
       </c>
       <c r="S38" t="n">
-        <v>2151.682665188988</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="T38" t="n">
-        <v>1935.283650848877</v>
+        <v>2064.829201604109</v>
       </c>
       <c r="U38" t="n">
-        <v>1935.283650848877</v>
+        <v>1809.206255487717</v>
       </c>
       <c r="V38" t="n">
-        <v>1935.283650848877</v>
+        <v>1809.206255487717</v>
       </c>
       <c r="W38" t="n">
-        <v>1564.284615817165</v>
+        <v>1438.207220456005</v>
       </c>
       <c r="X38" t="n">
-        <v>1174.832010750221</v>
+        <v>1438.207220456005</v>
       </c>
       <c r="Y38" t="n">
-        <v>778.3413016708225</v>
+        <v>1438.207220456005</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>45.6245643188844</v>
       </c>
       <c r="J39" t="n">
-        <v>45.6245643188844</v>
+        <v>239.1148819882603</v>
       </c>
       <c r="K39" t="n">
-        <v>94.29784861740941</v>
+        <v>696.2282783290118</v>
       </c>
       <c r="L39" t="n">
-        <v>189.8547377639867</v>
+        <v>972.8010872984084</v>
       </c>
       <c r="M39" t="n">
-        <v>754.4587212101812</v>
+        <v>1096.893434117154</v>
       </c>
       <c r="N39" t="n">
-        <v>1319.062704656376</v>
+        <v>1233.635755303126</v>
       </c>
       <c r="O39" t="n">
-        <v>1883.66668810257</v>
+        <v>1344.285397528268</v>
       </c>
       <c r="P39" t="n">
-        <v>1959.906287974891</v>
+        <v>1908.889380974462</v>
       </c>
       <c r="Q39" t="n">
         <v>2251.849419974995</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>483.3721864053824</v>
+        <v>465.8623541396057</v>
       </c>
       <c r="C40" t="n">
-        <v>313.1670684713716</v>
+        <v>465.8623541396057</v>
       </c>
       <c r="D40" t="n">
-        <v>313.1670684713716</v>
+        <v>465.8623541396057</v>
       </c>
       <c r="E40" t="n">
-        <v>213.1509133785547</v>
+        <v>465.8623541396057</v>
       </c>
       <c r="F40" t="n">
-        <v>213.1509133785547</v>
+        <v>465.8623541396057</v>
       </c>
       <c r="G40" t="n">
-        <v>45.6245643188844</v>
+        <v>305.843513920046</v>
       </c>
       <c r="H40" t="n">
-        <v>45.6245643188844</v>
+        <v>156.8349204668551</v>
       </c>
       <c r="I40" t="n">
         <v>45.6245643188844</v>
@@ -7341,13 +7341,13 @@
         <v>501.1388949376825</v>
       </c>
       <c r="M40" t="n">
-        <v>799.2315011068069</v>
+        <v>799.2315011068071</v>
       </c>
       <c r="N40" t="n">
         <v>1091.563784414643</v>
       </c>
       <c r="O40" t="n">
-        <v>1355.079453313001</v>
+        <v>1355.079453313002</v>
       </c>
       <c r="P40" t="n">
         <v>1561.216761249399</v>
@@ -7356,28 +7356,28 @@
         <v>1624.361701187858</v>
       </c>
       <c r="R40" t="n">
-        <v>1624.361701187858</v>
+        <v>1533.180967666006</v>
       </c>
       <c r="S40" t="n">
-        <v>1624.361701187858</v>
+        <v>1533.180967666006</v>
       </c>
       <c r="T40" t="n">
-        <v>1391.751933676233</v>
+        <v>1300.571200154382</v>
       </c>
       <c r="U40" t="n">
-        <v>1391.751933676233</v>
+        <v>1015.172101387604</v>
       </c>
       <c r="V40" t="n">
-        <v>1125.772588497057</v>
+        <v>749.192756208428</v>
       </c>
       <c r="W40" t="n">
-        <v>1125.772588497057</v>
+        <v>465.8623541396057</v>
       </c>
       <c r="X40" t="n">
-        <v>891.6922662800404</v>
+        <v>465.8623541396057</v>
       </c>
       <c r="Y40" t="n">
-        <v>668.5802050966837</v>
+        <v>465.8623541396057</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>832.7252014537399</v>
+        <v>931.488165969417</v>
       </c>
       <c r="C41" t="n">
-        <v>532.958688401707</v>
+        <v>538.3126644723475</v>
       </c>
       <c r="D41" t="n">
-        <v>532.958688401707</v>
+        <v>538.3126644723475</v>
       </c>
       <c r="E41" t="n">
-        <v>532.958688401707</v>
+        <v>538.3126644723475</v>
       </c>
       <c r="F41" t="n">
-        <v>532.958688401707</v>
+        <v>121.4182260023253</v>
       </c>
       <c r="G41" t="n">
         <v>121.4182260023253</v>
@@ -7411,52 +7411,52 @@
         <v>45.6245643188844</v>
       </c>
       <c r="J41" t="n">
-        <v>64.07159183144927</v>
+        <v>325.2244043032</v>
       </c>
       <c r="K41" t="n">
-        <v>625.3091162090021</v>
+        <v>886.461928680753</v>
       </c>
       <c r="L41" t="n">
-        <v>724.5088491394819</v>
+        <v>985.6616616112328</v>
       </c>
       <c r="M41" t="n">
-        <v>855.4728001055522</v>
+        <v>1116.625612577303</v>
       </c>
       <c r="N41" t="n">
-        <v>1420.076783551747</v>
+        <v>1252.707672634841</v>
       </c>
       <c r="O41" t="n">
-        <v>1539.907294220327</v>
+        <v>1372.538183303421</v>
       </c>
       <c r="P41" t="n">
-        <v>1862.037941359101</v>
+        <v>1924.679519605118</v>
       </c>
       <c r="Q41" t="n">
-        <v>2218.586637698204</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="R41" t="n">
         <v>2281.22821594422</v>
       </c>
       <c r="S41" t="n">
-        <v>2151.682665188988</v>
+        <v>2151.682665188987</v>
       </c>
       <c r="T41" t="n">
         <v>1935.283650848877</v>
       </c>
       <c r="U41" t="n">
-        <v>1935.283650848877</v>
+        <v>1679.660704732485</v>
       </c>
       <c r="V41" t="n">
-        <v>1593.176841552396</v>
+        <v>1337.553895436003</v>
       </c>
       <c r="W41" t="n">
-        <v>1222.177806520683</v>
+        <v>966.5548604042906</v>
       </c>
       <c r="X41" t="n">
-        <v>832.7252014537399</v>
+        <v>931.488165969417</v>
       </c>
       <c r="Y41" t="n">
-        <v>832.7252014537399</v>
+        <v>931.488165969417</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>805.8542565822772</v>
+        <v>805.8542565822763</v>
       </c>
       <c r="C42" t="n">
-        <v>655.2000261423693</v>
+        <v>655.2000261423685</v>
       </c>
       <c r="D42" t="n">
-        <v>525.1110587638495</v>
+        <v>525.1110587638489</v>
       </c>
       <c r="E42" t="n">
-        <v>388.6645678747373</v>
+        <v>388.6645678747366</v>
       </c>
       <c r="F42" t="n">
-        <v>264.232761757869</v>
+        <v>264.2327617578684</v>
       </c>
       <c r="G42" t="n">
-        <v>145.0409471682424</v>
+        <v>145.0409471682419</v>
       </c>
       <c r="H42" t="n">
-        <v>65.12661564339169</v>
+        <v>65.1266156433914</v>
       </c>
       <c r="I42" t="n">
         <v>45.6245643188844</v>
@@ -7493,49 +7493,49 @@
         <v>239.1148819882603</v>
       </c>
       <c r="K42" t="n">
-        <v>304.7788047712377</v>
+        <v>696.2282783290118</v>
       </c>
       <c r="L42" t="n">
-        <v>869.3827882174322</v>
+        <v>972.8010872984084</v>
       </c>
       <c r="M42" t="n">
-        <v>993.4751350361781</v>
+        <v>1096.893434117154</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.079118482373</v>
+        <v>1233.635755303126</v>
       </c>
       <c r="O42" t="n">
-        <v>1668.728760707515</v>
+        <v>1344.285397528268</v>
       </c>
       <c r="P42" t="n">
-        <v>2233.332744153709</v>
+        <v>1908.889380974462</v>
       </c>
       <c r="Q42" t="n">
-        <v>2251.849419974996</v>
+        <v>2251.849419974995</v>
       </c>
       <c r="R42" t="n">
-        <v>2281.22821594422</v>
+        <v>2281.228215944219</v>
       </c>
       <c r="S42" t="n">
-        <v>2162.420320153677</v>
+        <v>2162.420320153676</v>
       </c>
       <c r="T42" t="n">
-        <v>1988.935170931927</v>
+        <v>1988.935170931926</v>
       </c>
       <c r="U42" t="n">
-        <v>1778.929133093366</v>
+        <v>1778.929133093365</v>
       </c>
       <c r="V42" t="n">
-        <v>1556.389131464433</v>
+        <v>1556.389131464432</v>
       </c>
       <c r="W42" t="n">
-        <v>1326.27188559772</v>
+        <v>1326.271885597719</v>
       </c>
       <c r="X42" t="n">
-        <v>1136.964807947731</v>
+        <v>1136.96480794773</v>
       </c>
       <c r="Y42" t="n">
-        <v>957.6505910232386</v>
+        <v>957.6505910232377</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1533.223219603321</v>
+        <v>649.160451509082</v>
       </c>
       <c r="C43" t="n">
-        <v>1363.01810166931</v>
+        <v>478.9553335750712</v>
       </c>
       <c r="D43" t="n">
-        <v>1207.384988571825</v>
+        <v>323.322220477586</v>
       </c>
       <c r="E43" t="n">
-        <v>1130.236377736078</v>
+        <v>323.322220477586</v>
       </c>
       <c r="F43" t="n">
-        <v>1130.236377736078</v>
+        <v>213.1509133785547</v>
       </c>
       <c r="G43" t="n">
-        <v>962.7100286764081</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="H43" t="n">
-        <v>813.7014352232172</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="I43" t="n">
-        <v>702.4910790752465</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="J43" t="n">
-        <v>723.1422389565309</v>
+        <v>66.27572420016885</v>
       </c>
       <c r="K43" t="n">
-        <v>887.840884756979</v>
+        <v>230.9743700006168</v>
       </c>
       <c r="L43" t="n">
-        <v>1158.005409694045</v>
+        <v>501.1388949376825</v>
       </c>
       <c r="M43" t="n">
-        <v>1456.098015863169</v>
+        <v>799.2315011068071</v>
       </c>
       <c r="N43" t="n">
-        <v>1748.430299171005</v>
+        <v>1091.563784414643</v>
       </c>
       <c r="O43" t="n">
-        <v>2011.945968069364</v>
+        <v>1355.079453313002</v>
       </c>
       <c r="P43" t="n">
-        <v>2218.083276005761</v>
+        <v>1561.216761249399</v>
       </c>
       <c r="Q43" t="n">
-        <v>2281.22821594422</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="R43" t="n">
-        <v>2190.047482422368</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="S43" t="n">
-        <v>1999.913309331962</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="T43" t="n">
-        <v>1767.303541820337</v>
+        <v>1391.751933676234</v>
       </c>
       <c r="U43" t="n">
-        <v>1767.303541820337</v>
+        <v>1106.352834909456</v>
       </c>
       <c r="V43" t="n">
-        <v>1767.303541820337</v>
+        <v>1106.352834909456</v>
       </c>
       <c r="W43" t="n">
-        <v>1767.303541820337</v>
+        <v>1106.352834909456</v>
       </c>
       <c r="X43" t="n">
-        <v>1533.223219603321</v>
+        <v>872.2725126924387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1533.223219603321</v>
+        <v>649.160451509082</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>983.6981753664795</v>
+        <v>1094.790156086481</v>
       </c>
       <c r="C44" t="n">
-        <v>590.52267386941</v>
+        <v>935.5422132851625</v>
       </c>
       <c r="D44" t="n">
-        <v>590.52267386941</v>
+        <v>935.5422132851625</v>
       </c>
       <c r="E44" t="n">
-        <v>590.52267386941</v>
+        <v>532.958688401707</v>
       </c>
       <c r="F44" t="n">
-        <v>590.52267386941</v>
+        <v>532.958688401707</v>
       </c>
       <c r="G44" t="n">
-        <v>178.9822114700283</v>
+        <v>121.4182260023253</v>
       </c>
       <c r="H44" t="n">
-        <v>45.6245643188844</v>
+        <v>121.4182260023253</v>
       </c>
       <c r="I44" t="n">
         <v>45.6245643188844</v>
       </c>
       <c r="J44" t="n">
-        <v>325.2244043032</v>
+        <v>64.0715918314493</v>
       </c>
       <c r="K44" t="n">
-        <v>886.4619286807529</v>
+        <v>625.3091162090022</v>
       </c>
       <c r="L44" t="n">
-        <v>985.6616616112326</v>
+        <v>724.508849139482</v>
       </c>
       <c r="M44" t="n">
-        <v>1116.625612577303</v>
+        <v>855.4728001055524</v>
       </c>
       <c r="N44" t="n">
-        <v>1681.229596023497</v>
+        <v>1420.076783551747</v>
       </c>
       <c r="O44" t="n">
-        <v>1801.060106692077</v>
+        <v>1539.907294220327</v>
       </c>
       <c r="P44" t="n">
-        <v>1880.907024612543</v>
+        <v>1924.679519605118</v>
       </c>
       <c r="Q44" t="n">
-        <v>2218.586637698204</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="R44" t="n">
         <v>2281.22821594422</v>
       </c>
       <c r="S44" t="n">
-        <v>2151.682665188988</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="T44" t="n">
-        <v>2151.682665188988</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="U44" t="n">
-        <v>2151.682665188988</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="V44" t="n">
-        <v>2151.682665188988</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="W44" t="n">
-        <v>1780.683630157275</v>
+        <v>2281.22821594422</v>
       </c>
       <c r="X44" t="n">
-        <v>1780.683630157275</v>
+        <v>1891.775610877276</v>
       </c>
       <c r="Y44" t="n">
-        <v>1384.192921077876</v>
+        <v>1495.284901797878</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>805.8542565822763</v>
+        <v>805.8542565822768</v>
       </c>
       <c r="C45" t="n">
-        <v>655.2000261423685</v>
+        <v>655.2000261423689</v>
       </c>
       <c r="D45" t="n">
-        <v>525.1110587638489</v>
+        <v>525.1110587638491</v>
       </c>
       <c r="E45" t="n">
-        <v>388.6645678747366</v>
+        <v>388.6645678747368</v>
       </c>
       <c r="F45" t="n">
-        <v>264.2327617578684</v>
+        <v>264.2327617578685</v>
       </c>
       <c r="G45" t="n">
         <v>145.0409471682419</v>
       </c>
       <c r="H45" t="n">
-        <v>65.1266156433914</v>
+        <v>65.12661564339139</v>
       </c>
       <c r="I45" t="n">
         <v>45.6245643188844</v>
       </c>
       <c r="J45" t="n">
-        <v>45.6245643188844</v>
+        <v>239.1148819882603</v>
       </c>
       <c r="K45" t="n">
-        <v>502.7379606596359</v>
+        <v>696.2282783290118</v>
       </c>
       <c r="L45" t="n">
-        <v>1067.34194410583</v>
+        <v>972.8010872984089</v>
       </c>
       <c r="M45" t="n">
-        <v>1455.746839649222</v>
+        <v>1096.893434117155</v>
       </c>
       <c r="N45" t="n">
-        <v>1592.489160835194</v>
+        <v>1233.635755303127</v>
       </c>
       <c r="O45" t="n">
-        <v>2157.093144281388</v>
+        <v>1344.285397528269</v>
       </c>
       <c r="P45" t="n">
-        <v>2233.332744153709</v>
+        <v>1908.889380974463</v>
       </c>
       <c r="Q45" t="n">
-        <v>2251.849419974996</v>
+        <v>2251.849419974995</v>
       </c>
       <c r="R45" t="n">
         <v>2281.22821594422</v>
@@ -7760,7 +7760,7 @@
         <v>1988.935170931927</v>
       </c>
       <c r="U45" t="n">
-        <v>1778.929133093366</v>
+        <v>1778.929133093365</v>
       </c>
       <c r="V45" t="n">
         <v>1556.389131464432</v>
@@ -7769,10 +7769,10 @@
         <v>1326.271885597719</v>
       </c>
       <c r="X45" t="n">
-        <v>1136.96480794773</v>
+        <v>1136.964807947731</v>
       </c>
       <c r="Y45" t="n">
-        <v>957.6505910232377</v>
+        <v>957.6505910232381</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1154.627891858127</v>
+        <v>215.8296822528952</v>
       </c>
       <c r="C46" t="n">
-        <v>1154.627891858127</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="D46" t="n">
-        <v>998.9947787606413</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="E46" t="n">
-        <v>870.0174281349168</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="F46" t="n">
-        <v>870.0174281349168</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="G46" t="n">
-        <v>702.4910790752465</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="H46" t="n">
-        <v>702.4910790752465</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="I46" t="n">
-        <v>702.4910790752465</v>
+        <v>45.6245643188844</v>
       </c>
       <c r="J46" t="n">
-        <v>723.1422389565309</v>
+        <v>66.27572420016885</v>
       </c>
       <c r="K46" t="n">
-        <v>887.840884756979</v>
+        <v>230.9743700006168</v>
       </c>
       <c r="L46" t="n">
-        <v>1158.005409694045</v>
+        <v>501.1388949376825</v>
       </c>
       <c r="M46" t="n">
-        <v>1456.098015863169</v>
+        <v>799.2315011068071</v>
       </c>
       <c r="N46" t="n">
-        <v>1748.430299171005</v>
+        <v>1091.563784414643</v>
       </c>
       <c r="O46" t="n">
-        <v>2011.945968069364</v>
+        <v>1355.079453313002</v>
       </c>
       <c r="P46" t="n">
-        <v>2218.083276005761</v>
+        <v>1561.216761249399</v>
       </c>
       <c r="Q46" t="n">
-        <v>2281.22821594422</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="R46" t="n">
-        <v>2190.047482422368</v>
+        <v>1624.361701187858</v>
       </c>
       <c r="S46" t="n">
-        <v>2190.047482422368</v>
+        <v>1434.227528097452</v>
       </c>
       <c r="T46" t="n">
-        <v>1957.437714910744</v>
+        <v>1201.617760585827</v>
       </c>
       <c r="U46" t="n">
-        <v>1672.038616143966</v>
+        <v>1201.617760585827</v>
       </c>
       <c r="V46" t="n">
-        <v>1672.038616143966</v>
+        <v>935.6384154066515</v>
       </c>
       <c r="W46" t="n">
-        <v>1388.708214075143</v>
+        <v>652.3080133378292</v>
       </c>
       <c r="X46" t="n">
-        <v>1154.627891858127</v>
+        <v>418.2276911208122</v>
       </c>
       <c r="Y46" t="n">
-        <v>1154.627891858127</v>
+        <v>215.8296822528952</v>
       </c>
     </row>
   </sheetData>
@@ -8692,28 +8692,28 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>429.8039896812037</v>
       </c>
       <c r="L11" t="n">
-        <v>426.6569291652081</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>438.020234828408</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>449.2661341188026</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>489.6536015411401</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
-        <v>39.24329354122972</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>1.257249808435901</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>351.8275733208346</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>473.7849437369871</v>
+        <v>473.7849437369869</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>458.5397386071239</v>
+        <v>449.3457583279541</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>493.2973571453265</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>505.666843611017</v>
+        <v>429.8039896812037</v>
       </c>
       <c r="L14" t="n">
-        <v>470.1053035512269</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>489.6536015411402</v>
+        <v>489.6536015411401</v>
       </c>
       <c r="Q14" t="n">
-        <v>112.3082690774695</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
-        <v>39.24329354122972</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>1.257249808435901</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>473.784943736987</v>
+        <v>182.8443634573939</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>432.1834972325482</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>242.2825779020732</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>493.2973571453266</v>
+        <v>493.2973571453265</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
-        <v>41.33825342159545</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>470.1053035512269</v>
+        <v>470.1053035512267</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>6.95976552072301</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>449.2661341188026</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>489.6536015411402</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>168.708978569684</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
-        <v>39.24329354122972</v>
+        <v>39.2432935412297</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>1.257249808435901</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>423.1045713093384</v>
+        <v>182.8443634573939</v>
       </c>
       <c r="N18" t="n">
-        <v>432.1834972325481</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>458.5397386071239</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>493.2973571453265</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
-        <v>41.33825342159545</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,10 +9403,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>449.3522876711179</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>470.1053035512269</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>449.2661341188026</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>489.6536015411402</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>311.7492409918531</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9479,25 +9479,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>1.257249808435901</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>182.8443634573942</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>432.1834972325482</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>358.67140128707</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>493.2973571453266</v>
+        <v>493.2973571453267</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9652,10 +9652,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>134.9164605258576</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>502.0059847475129</v>
+        <v>42.87416250348872</v>
       </c>
       <c r="Q23" t="n">
         <v>331.2113854294513</v>
@@ -9716,25 +9716,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>1.257249808435901</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>179.3398015244184</v>
       </c>
       <c r="M24" t="n">
-        <v>669.7270375932471</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9877,7 +9877,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>46.53502136699198</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
         <v>651.5514946987026</v>
@@ -9892,13 +9892,13 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>502.0059847475129</v>
+        <v>106.1484839641112</v>
       </c>
       <c r="Q26" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
-        <v>102.5176150018526</v>
+        <v>39.2432935412297</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>1.257249808435901</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>179.3398015244184</v>
       </c>
       <c r="M27" t="n">
-        <v>39.57623261069942</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>46.53502136699198</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
         <v>651.5514946987026</v>
@@ -10129,7 +10129,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475129</v>
+        <v>42.87416250348872</v>
       </c>
       <c r="Q29" t="n">
         <v>331.2113854294513</v>
@@ -10190,25 +10190,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>1.257249808435901</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>705.6413169915488</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>179.3398015244183</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10360,19 +10360,19 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N32" t="n">
-        <v>223.1293798386706</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>502.0059847475129</v>
+        <v>106.1484839641112</v>
       </c>
       <c r="Q32" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
-        <v>102.5176150018526</v>
+        <v>39.2432935412297</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,22 +10427,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>1.257249808435901</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>179.3398015244184</v>
       </c>
       <c r="M33" t="n">
-        <v>172.925118514945</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10588,28 +10588,28 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>405.8177597327841</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>470.1053035512269</v>
+        <v>470.1053035512268</v>
       </c>
       <c r="M35" t="n">
-        <v>438.0202348284083</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>432.8504276653093</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>16.50186000580821</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
-        <v>39.24329354122972</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>1.257249808435901</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>332.315159912494</v>
+        <v>182.8443634573933</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>458.539738607124</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>493.2973571453267</v>
+        <v>493.2973571453266</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>295.9619419435691</v>
+        <v>470.1053035512268</v>
       </c>
       <c r="M38" t="n">
-        <v>438.0202348284083</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>449.2661341188027</v>
+        <v>22.97300759060039</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>489.6536015411402</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>102.5176150018526</v>
+        <v>39.2432935412297</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>1.257249808435901</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>182.8443634573933</v>
       </c>
       <c r="M39" t="n">
-        <v>444.961249118635</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>432.1834972325483</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>458.5397386071239</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>493.2973571453266</v>
       </c>
       <c r="Q39" t="n">
-        <v>276.1883395745623</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
         <v>505.666843611017</v>
@@ -11071,19 +11071,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>432.8504276653096</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>244.7310396144537</v>
+        <v>477.0650690719503</v>
       </c>
       <c r="Q41" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5176150018526</v>
+        <v>39.2432935412297</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,25 +11141,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>17.16226109540646</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>473.7849437369872</v>
+        <v>182.8443634573933</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>432.1834972325482</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>493.2973571453267</v>
+        <v>493.2973571453266</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>505.666843611017</v>
@@ -11308,19 +11308,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>432.8504276653096</v>
+        <v>432.8504276653093</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>308.0053610750762</v>
       </c>
       <c r="Q44" t="n">
-        <v>312.15170537547</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5176150018526</v>
+        <v>39.2432935412297</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>1.257249808435901</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>473.7849437369871</v>
+        <v>182.8443634573937</v>
       </c>
       <c r="M45" t="n">
-        <v>266.9823724491371</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>458.539738607124</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>493.2973571453266</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>407.4250577753879</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>304.3940536830004</v>
       </c>
       <c r="I11" t="n">
-        <v>75.0357250666065</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>12.66603737565262</v>
       </c>
       <c r="T11" t="n">
-        <v>214.2350241967096</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>72.64025511894113</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23427,16 +23427,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>165.8510855690736</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.518507518659</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.098252586491</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S13" t="n">
-        <v>188.2328313595025</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>230.2836698365084</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>219.6708133516547</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>134.5489528167248</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.877936094637846</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>83.84187994954158</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>407.4250577753879</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I14" t="n">
-        <v>75.0357250666065</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>56.28927178128139</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8510855690736</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.518507518659</v>
       </c>
       <c r="I16" t="n">
         <v>110.098252586491</v>
@@ -23706,22 +23706,22 @@
         <v>188.2328313595025</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>230.2836698365084</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5451077791103</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>90.77437390096577</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>362.3026892955641</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>159.00292461996</v>
       </c>
       <c r="G17" t="n">
-        <v>407.4250577753879</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>128.2500952476802</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>214.2350241967096</v>
       </c>
       <c r="U17" t="n">
         <v>253.0667166552282</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>63.11985786694696</v>
       </c>
       <c r="G19" t="n">
         <v>165.8510855690736</v>
       </c>
       <c r="H19" t="n">
-        <v>28.60283623370738</v>
+        <v>147.518507518659</v>
       </c>
       <c r="I19" t="n">
         <v>110.098252586491</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>407.4250577753879</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I20" t="n">
-        <v>75.0357250666065</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>128.2500952476802</v>
       </c>
       <c r="T20" t="n">
-        <v>205.7112539823776</v>
+        <v>214.2350241967096</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0667166552282</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>107.9252105254439</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>62.43848292666323</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>172.4400051865063</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>11.14849747267431</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>407.4250577753879</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>114.1795015650606</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>130.0013940306453</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24381,7 +24381,7 @@
         <v>165.8510855690736</v>
       </c>
       <c r="H25" t="n">
-        <v>147.518507518659</v>
+        <v>93.83462897588134</v>
       </c>
       <c r="I25" t="n">
         <v>110.098252586491</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>22.08375699377922</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>75.03572506660649</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>343.5378301814545</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -24615,13 +24615,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>165.8510855690736</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>147.518507518659</v>
       </c>
       <c r="I28" t="n">
-        <v>110.098252586491</v>
+        <v>28.41699298772117</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>144.8542657803628</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>114.1795015650616</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>304.3940536830004</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>22.08375699377845</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>165.8510855690736</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>147.518507518659</v>
       </c>
       <c r="I31" t="n">
-        <v>110.098252586491</v>
+        <v>47.12517858998041</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>3.936938431835529</v>
+        <v>230.2836698365084</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5451077791103</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>11.14849747267419</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>407.4250577753879</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>128.2500952476802</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>290.3234600003811</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>129.6720599616106</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>144.8542657803628</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,22 +25159,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>46.7141917974626</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>407.4250577753879</v>
       </c>
       <c r="H35" t="n">
-        <v>304.3940536830004</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>75.0357250666065</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>214.2350241967096</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>265.9923587266504</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>87.62122148460507</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>230.2836698365084</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>94.70371021104896</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>195.9994430659655</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>399.1550355652915</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>75.0357250666065</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>128.2500952476802</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0667166552282</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>54.98723047750079</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>7.432433751709539</v>
       </c>
       <c r="H40" t="n">
-        <v>147.518507518659</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.098252586491</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.26892618663325</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>188.2328313595025</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5451077791103</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>92.47489856058615</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -25639,10 +25639,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>407.4250577753879</v>
       </c>
       <c r="H41" t="n">
         <v>304.3940536830004</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.0667166552282</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>350.8420515257488</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>77.62609929200073</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>46.68308141111584</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.518507518659</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.098252586491</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>188.2328313595025</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5451077791103</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>231.5882831087937</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>172.3699830033679</v>
+        <v>304.3940536830004</v>
       </c>
       <c r="I44" t="n">
-        <v>75.0357250666065</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>128.2500952476802</v>
       </c>
       <c r="T44" t="n">
         <v>214.2350241967096</v>
@@ -25927,10 +25927,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>26.31564689992224</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.8510855690736</v>
       </c>
       <c r="H46" t="n">
         <v>147.518507518659</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.26892618663325</v>
       </c>
       <c r="S46" t="n">
-        <v>188.2328313595025</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5451077791103</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>20.50691179228522</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>518573.8081114725</v>
+        <v>518573.8081114726</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>518573.8081114722</v>
+        <v>518573.8081114724</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>518573.8081114725</v>
+        <v>518573.8081114724</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>518573.8081114725</v>
+        <v>518573.8081114724</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>739954.4890700827</v>
+        <v>739954.4890700829</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739954.4890700828</v>
+        <v>739954.4890700829</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>739954.4890700827</v>
+        <v>739954.4890700829</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>518573.8081114726</v>
+        <v>518573.8081114725</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>518573.8081114726</v>
+        <v>518573.8081114725</v>
       </c>
     </row>
     <row r="16">
@@ -26325,37 +26325,37 @@
         <v>393277.738705762</v>
       </c>
       <c r="F2" t="n">
-        <v>393277.7387057618</v>
+        <v>393277.7387057622</v>
       </c>
       <c r="G2" t="n">
-        <v>393277.7387057619</v>
+        <v>393277.7387057622</v>
       </c>
       <c r="H2" t="n">
-        <v>393277.7387057619</v>
+        <v>393277.7387057623</v>
       </c>
       <c r="I2" t="n">
-        <v>538621.7095899754</v>
+        <v>538621.7095899759</v>
       </c>
       <c r="J2" t="n">
-        <v>538621.7095899753</v>
+        <v>538621.7095899757</v>
       </c>
       <c r="K2" t="n">
-        <v>538621.7095899754</v>
+        <v>538621.7095899759</v>
       </c>
       <c r="L2" t="n">
-        <v>538621.7095899755</v>
+        <v>538621.7095899757</v>
       </c>
       <c r="M2" t="n">
+        <v>393277.7387057621</v>
+      </c>
+      <c r="N2" t="n">
         <v>393277.7387057622</v>
       </c>
-      <c r="N2" t="n">
-        <v>393277.738705762</v>
-      </c>
       <c r="O2" t="n">
-        <v>393277.7387057623</v>
+        <v>393277.7387057622</v>
       </c>
       <c r="P2" t="n">
-        <v>393277.7387057619</v>
+        <v>393277.7387057621</v>
       </c>
     </row>
     <row r="3">
@@ -26426,13 +26426,13 @@
         <v>373785.5528862592</v>
       </c>
       <c r="E4" t="n">
-        <v>78096.69704256236</v>
+        <v>78096.69704256233</v>
       </c>
       <c r="F4" t="n">
-        <v>78096.69704256234</v>
+        <v>78096.69704256233</v>
       </c>
       <c r="G4" t="n">
-        <v>78096.69704256236</v>
+        <v>78096.69704256233</v>
       </c>
       <c r="H4" t="n">
         <v>78096.69704256236</v>
@@ -26450,13 +26450,13 @@
         <v>136785.5834501902</v>
       </c>
       <c r="M4" t="n">
-        <v>78096.69704256236</v>
+        <v>78096.69704256234</v>
       </c>
       <c r="N4" t="n">
-        <v>78096.69704256236</v>
+        <v>78096.69704256234</v>
       </c>
       <c r="O4" t="n">
-        <v>78096.69704256237</v>
+        <v>78096.69704256234</v>
       </c>
       <c r="P4" t="n">
         <v>78096.69704256236</v>
@@ -26487,31 +26487,31 @@
         <v>43383.98595902142</v>
       </c>
       <c r="H5" t="n">
+        <v>43383.98595902143</v>
+      </c>
+      <c r="I5" t="n">
+        <v>78058.65484137359</v>
+      </c>
+      <c r="J5" t="n">
+        <v>78058.65484137359</v>
+      </c>
+      <c r="K5" t="n">
+        <v>78058.65484137359</v>
+      </c>
+      <c r="L5" t="n">
+        <v>78058.65484137359</v>
+      </c>
+      <c r="M5" t="n">
         <v>43383.98595902142</v>
       </c>
-      <c r="I5" t="n">
-        <v>78058.65484137357</v>
-      </c>
-      <c r="J5" t="n">
-        <v>78058.65484137357</v>
-      </c>
-      <c r="K5" t="n">
-        <v>78058.65484137357</v>
-      </c>
-      <c r="L5" t="n">
-        <v>78058.65484137357</v>
-      </c>
-      <c r="M5" t="n">
-        <v>43383.98595902143</v>
-      </c>
       <c r="N5" t="n">
-        <v>43383.98595902143</v>
+        <v>43383.98595902142</v>
       </c>
       <c r="O5" t="n">
-        <v>43383.98595902143</v>
+        <v>43383.98595902142</v>
       </c>
       <c r="P5" t="n">
-        <v>43383.98595902143</v>
+        <v>43383.98595902142</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186254.2774523069</v>
+        <v>186249.9478845205</v>
       </c>
       <c r="C6" t="n">
-        <v>186254.2774523072</v>
+        <v>186249.9478845207</v>
       </c>
       <c r="D6" t="n">
-        <v>186254.2774523071</v>
+        <v>186249.9478845206</v>
       </c>
       <c r="E6" t="n">
-        <v>-219451.5823630412</v>
+        <v>-220063.153420624</v>
       </c>
       <c r="F6" t="n">
-        <v>271797.0557041781</v>
+        <v>271185.4846465957</v>
       </c>
       <c r="G6" t="n">
-        <v>271797.0557041781</v>
+        <v>271185.4846465957</v>
       </c>
       <c r="H6" t="n">
-        <v>271797.0557041781</v>
+        <v>271185.4846465957</v>
       </c>
       <c r="I6" t="n">
-        <v>172120.8491953859</v>
+        <v>171949.7144132103</v>
       </c>
       <c r="J6" t="n">
-        <v>323777.4712984116</v>
+        <v>323606.3365162359</v>
       </c>
       <c r="K6" t="n">
-        <v>323777.4712984117</v>
+        <v>323606.336516236</v>
       </c>
       <c r="L6" t="n">
-        <v>323777.4712984118</v>
+        <v>323606.3365162359</v>
       </c>
       <c r="M6" t="n">
-        <v>271797.0557041784</v>
+        <v>271185.4846465955</v>
       </c>
       <c r="N6" t="n">
-        <v>271797.0557041782</v>
+        <v>271185.4846465956</v>
       </c>
       <c r="O6" t="n">
-        <v>271797.0557041785</v>
+        <v>271185.4846465956</v>
       </c>
       <c r="P6" t="n">
-        <v>271797.0557041781</v>
+        <v>271185.4846465955</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>570.3070539860549</v>
+        <v>570.3070539860548</v>
       </c>
       <c r="F4" t="n">
-        <v>570.3070539860549</v>
+        <v>570.3070539860548</v>
       </c>
       <c r="G4" t="n">
-        <v>570.3070539860549</v>
+        <v>570.3070539860548</v>
       </c>
       <c r="H4" t="n">
-        <v>570.3070539860549</v>
+        <v>570.3070539860551</v>
       </c>
       <c r="I4" t="n">
         <v>1140.61410797211</v>
@@ -26822,16 +26822,16 @@
         <v>1140.61410797211</v>
       </c>
       <c r="M4" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="N4" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="O4" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="P4" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>570.3070539860549</v>
+        <v>570.3070539860548</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>570.3070539860549</v>
+        <v>570.3070539860548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>16.44816624617385</v>
       </c>
       <c r="I11" t="n">
-        <v>61.91802067185331</v>
+        <v>61.91802067185332</v>
       </c>
       <c r="J11" t="n">
         <v>136.313199066149</v>
@@ -31770,16 +31770,16 @@
         <v>253.4499201653198</v>
       </c>
       <c r="M11" t="n">
-        <v>282.0118707553741</v>
+        <v>282.0118707553742</v>
       </c>
       <c r="N11" t="n">
-        <v>286.5751176585296</v>
+        <v>286.5751176585297</v>
       </c>
       <c r="O11" t="n">
-        <v>270.6047572913487</v>
+        <v>270.6047572913488</v>
       </c>
       <c r="P11" t="n">
-        <v>230.9548996858399</v>
+        <v>230.95489968584</v>
       </c>
       <c r="Q11" t="n">
         <v>173.4375113112664</v>
@@ -31788,13 +31788,13 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S11" t="n">
-        <v>36.59832426067978</v>
+        <v>36.59832426067979</v>
       </c>
       <c r="T11" t="n">
-        <v>7.030572219467939</v>
+        <v>7.03057221946794</v>
       </c>
       <c r="U11" t="n">
-        <v>0.128485614519117</v>
+        <v>0.1284856145191171</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8593233051240247</v>
+        <v>0.8593233051240248</v>
       </c>
       <c r="H12" t="n">
         <v>8.299254025803082</v>
@@ -31840,7 +31840,7 @@
         <v>29.58635063694559</v>
       </c>
       <c r="J12" t="n">
-        <v>81.18720752489745</v>
+        <v>81.18720752489746</v>
       </c>
       <c r="K12" t="n">
         <v>138.7618689682071</v>
@@ -31858,10 +31858,10 @@
         <v>204.45487426782</v>
       </c>
       <c r="P12" t="n">
-        <v>164.0930616600429</v>
+        <v>164.093061660043</v>
       </c>
       <c r="Q12" t="n">
-        <v>109.6918661067088</v>
+        <v>109.6918661067089</v>
       </c>
       <c r="R12" t="n">
         <v>53.35342415498113</v>
@@ -31870,10 +31870,10 @@
         <v>15.96155349649229</v>
       </c>
       <c r="T12" t="n">
-        <v>3.46367595354815</v>
+        <v>3.463675953548151</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05653442796868585</v>
+        <v>0.05653442796868587</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,46 +31910,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7204277924752751</v>
+        <v>0.7204277924752752</v>
       </c>
       <c r="H13" t="n">
-        <v>6.405258009461996</v>
+        <v>6.405258009461997</v>
       </c>
       <c r="I13" t="n">
-        <v>21.66522852280191</v>
+        <v>21.66522852280192</v>
       </c>
       <c r="J13" t="n">
         <v>50.93424492800195</v>
       </c>
       <c r="K13" t="n">
-        <v>83.70061079849103</v>
+        <v>83.70061079849104</v>
       </c>
       <c r="L13" t="n">
         <v>107.1079647103696</v>
       </c>
       <c r="M13" t="n">
-        <v>112.9303311422833</v>
+        <v>112.9303311422834</v>
       </c>
       <c r="N13" t="n">
-        <v>110.245100279421</v>
+        <v>110.2451002794211</v>
       </c>
       <c r="O13" t="n">
         <v>101.8291937945962</v>
       </c>
       <c r="P13" t="n">
-        <v>87.1324668281005</v>
+        <v>87.13246682810052</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.32600360445236</v>
+        <v>60.32600360445237</v>
       </c>
       <c r="R13" t="n">
-        <v>32.39305328711554</v>
+        <v>32.39305328711555</v>
       </c>
       <c r="S13" t="n">
-        <v>12.55509161977365</v>
+        <v>12.55509161977366</v>
       </c>
       <c r="T13" t="n">
-        <v>3.078191476939811</v>
+        <v>3.078191476939812</v>
       </c>
       <c r="U13" t="n">
         <v>0.03929606140774233</v>
@@ -31995,7 +31995,7 @@
         <v>16.44816624617385</v>
       </c>
       <c r="I14" t="n">
-        <v>61.91802067185331</v>
+        <v>61.91802067185332</v>
       </c>
       <c r="J14" t="n">
         <v>136.313199066149</v>
@@ -32007,16 +32007,16 @@
         <v>253.4499201653198</v>
       </c>
       <c r="M14" t="n">
-        <v>282.0118707553741</v>
+        <v>282.0118707553742</v>
       </c>
       <c r="N14" t="n">
-        <v>286.5751176585296</v>
+        <v>286.5751176585297</v>
       </c>
       <c r="O14" t="n">
-        <v>270.6047572913487</v>
+        <v>270.6047572913488</v>
       </c>
       <c r="P14" t="n">
-        <v>230.9548996858399</v>
+        <v>230.95489968584</v>
       </c>
       <c r="Q14" t="n">
         <v>173.4375113112664</v>
@@ -32025,13 +32025,13 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S14" t="n">
-        <v>36.59832426067978</v>
+        <v>36.59832426067979</v>
       </c>
       <c r="T14" t="n">
-        <v>7.030572219467939</v>
+        <v>7.03057221946794</v>
       </c>
       <c r="U14" t="n">
-        <v>0.128485614519117</v>
+        <v>0.1284856145191171</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8593233051240247</v>
+        <v>0.8593233051240248</v>
       </c>
       <c r="H15" t="n">
         <v>8.299254025803082</v>
@@ -32077,7 +32077,7 @@
         <v>29.58635063694559</v>
       </c>
       <c r="J15" t="n">
-        <v>81.18720752489745</v>
+        <v>81.18720752489746</v>
       </c>
       <c r="K15" t="n">
         <v>138.7618689682071</v>
@@ -32095,10 +32095,10 @@
         <v>204.45487426782</v>
       </c>
       <c r="P15" t="n">
-        <v>164.0930616600429</v>
+        <v>164.093061660043</v>
       </c>
       <c r="Q15" t="n">
-        <v>109.6918661067088</v>
+        <v>109.6918661067089</v>
       </c>
       <c r="R15" t="n">
         <v>53.35342415498113</v>
@@ -32107,10 +32107,10 @@
         <v>15.96155349649229</v>
       </c>
       <c r="T15" t="n">
-        <v>3.46367595354815</v>
+        <v>3.463675953548151</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05653442796868585</v>
+        <v>0.05653442796868587</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7204277924752751</v>
+        <v>0.7204277924752752</v>
       </c>
       <c r="H16" t="n">
-        <v>6.405258009461996</v>
+        <v>6.405258009461997</v>
       </c>
       <c r="I16" t="n">
-        <v>21.66522852280191</v>
+        <v>21.66522852280192</v>
       </c>
       <c r="J16" t="n">
         <v>50.93424492800195</v>
       </c>
       <c r="K16" t="n">
-        <v>83.70061079849103</v>
+        <v>83.70061079849104</v>
       </c>
       <c r="L16" t="n">
         <v>107.1079647103696</v>
       </c>
       <c r="M16" t="n">
-        <v>112.9303311422833</v>
+        <v>112.9303311422834</v>
       </c>
       <c r="N16" t="n">
-        <v>110.245100279421</v>
+        <v>110.2451002794211</v>
       </c>
       <c r="O16" t="n">
         <v>101.8291937945962</v>
       </c>
       <c r="P16" t="n">
-        <v>87.1324668281005</v>
+        <v>87.13246682810052</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.32600360445236</v>
+        <v>60.32600360445237</v>
       </c>
       <c r="R16" t="n">
-        <v>32.39305328711554</v>
+        <v>32.39305328711555</v>
       </c>
       <c r="S16" t="n">
-        <v>12.55509161977365</v>
+        <v>12.55509161977366</v>
       </c>
       <c r="T16" t="n">
-        <v>3.078191476939811</v>
+        <v>3.078191476939812</v>
       </c>
       <c r="U16" t="n">
         <v>0.03929606140774233</v>
@@ -32232,7 +32232,7 @@
         <v>16.44816624617385</v>
       </c>
       <c r="I17" t="n">
-        <v>61.91802067185331</v>
+        <v>61.91802067185332</v>
       </c>
       <c r="J17" t="n">
         <v>136.313199066149</v>
@@ -32244,16 +32244,16 @@
         <v>253.4499201653198</v>
       </c>
       <c r="M17" t="n">
-        <v>282.0118707553741</v>
+        <v>282.0118707553742</v>
       </c>
       <c r="N17" t="n">
-        <v>286.5751176585296</v>
+        <v>286.5751176585297</v>
       </c>
       <c r="O17" t="n">
-        <v>270.6047572913487</v>
+        <v>270.6047572913488</v>
       </c>
       <c r="P17" t="n">
-        <v>230.9548996858399</v>
+        <v>230.95489968584</v>
       </c>
       <c r="Q17" t="n">
         <v>173.4375113112664</v>
@@ -32262,13 +32262,13 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S17" t="n">
-        <v>36.59832426067978</v>
+        <v>36.59832426067979</v>
       </c>
       <c r="T17" t="n">
-        <v>7.030572219467939</v>
+        <v>7.03057221946794</v>
       </c>
       <c r="U17" t="n">
-        <v>0.128485614519117</v>
+        <v>0.1284856145191171</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8593233051240247</v>
+        <v>0.8593233051240248</v>
       </c>
       <c r="H18" t="n">
         <v>8.299254025803082</v>
@@ -32314,7 +32314,7 @@
         <v>29.58635063694559</v>
       </c>
       <c r="J18" t="n">
-        <v>81.18720752489745</v>
+        <v>81.18720752489746</v>
       </c>
       <c r="K18" t="n">
         <v>138.7618689682071</v>
@@ -32332,10 +32332,10 @@
         <v>204.45487426782</v>
       </c>
       <c r="P18" t="n">
-        <v>164.0930616600429</v>
+        <v>164.093061660043</v>
       </c>
       <c r="Q18" t="n">
-        <v>109.6918661067088</v>
+        <v>109.6918661067089</v>
       </c>
       <c r="R18" t="n">
         <v>53.35342415498113</v>
@@ -32344,10 +32344,10 @@
         <v>15.96155349649229</v>
       </c>
       <c r="T18" t="n">
-        <v>3.46367595354815</v>
+        <v>3.463675953548151</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05653442796868585</v>
+        <v>0.05653442796868587</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,46 +32384,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7204277924752751</v>
+        <v>0.7204277924752752</v>
       </c>
       <c r="H19" t="n">
-        <v>6.405258009461996</v>
+        <v>6.405258009461997</v>
       </c>
       <c r="I19" t="n">
-        <v>21.66522852280191</v>
+        <v>21.66522852280192</v>
       </c>
       <c r="J19" t="n">
         <v>50.93424492800195</v>
       </c>
       <c r="K19" t="n">
-        <v>83.70061079849103</v>
+        <v>83.70061079849104</v>
       </c>
       <c r="L19" t="n">
         <v>107.1079647103696</v>
       </c>
       <c r="M19" t="n">
-        <v>112.9303311422833</v>
+        <v>112.9303311422834</v>
       </c>
       <c r="N19" t="n">
-        <v>110.245100279421</v>
+        <v>110.2451002794211</v>
       </c>
       <c r="O19" t="n">
         <v>101.8291937945962</v>
       </c>
       <c r="P19" t="n">
-        <v>87.1324668281005</v>
+        <v>87.13246682810052</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.32600360445236</v>
+        <v>60.32600360445237</v>
       </c>
       <c r="R19" t="n">
-        <v>32.39305328711554</v>
+        <v>32.39305328711555</v>
       </c>
       <c r="S19" t="n">
-        <v>12.55509161977365</v>
+        <v>12.55509161977366</v>
       </c>
       <c r="T19" t="n">
-        <v>3.078191476939811</v>
+        <v>3.078191476939812</v>
       </c>
       <c r="U19" t="n">
         <v>0.03929606140774233</v>
@@ -32469,7 +32469,7 @@
         <v>16.44816624617385</v>
       </c>
       <c r="I20" t="n">
-        <v>61.91802067185331</v>
+        <v>61.91802067185332</v>
       </c>
       <c r="J20" t="n">
         <v>136.313199066149</v>
@@ -32481,16 +32481,16 @@
         <v>253.4499201653198</v>
       </c>
       <c r="M20" t="n">
-        <v>282.0118707553741</v>
+        <v>282.0118707553742</v>
       </c>
       <c r="N20" t="n">
-        <v>286.5751176585296</v>
+        <v>286.5751176585297</v>
       </c>
       <c r="O20" t="n">
-        <v>270.6047572913487</v>
+        <v>270.6047572913488</v>
       </c>
       <c r="P20" t="n">
-        <v>230.9548996858399</v>
+        <v>230.95489968584</v>
       </c>
       <c r="Q20" t="n">
         <v>173.4375113112664</v>
@@ -32499,13 +32499,13 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S20" t="n">
-        <v>36.59832426067978</v>
+        <v>36.59832426067979</v>
       </c>
       <c r="T20" t="n">
-        <v>7.030572219467939</v>
+        <v>7.03057221946794</v>
       </c>
       <c r="U20" t="n">
-        <v>0.128485614519117</v>
+        <v>0.1284856145191171</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8593233051240247</v>
+        <v>0.8593233051240248</v>
       </c>
       <c r="H21" t="n">
         <v>8.299254025803082</v>
@@ -32551,7 +32551,7 @@
         <v>29.58635063694559</v>
       </c>
       <c r="J21" t="n">
-        <v>81.18720752489745</v>
+        <v>81.18720752489746</v>
       </c>
       <c r="K21" t="n">
         <v>138.7618689682071</v>
@@ -32569,10 +32569,10 @@
         <v>204.45487426782</v>
       </c>
       <c r="P21" t="n">
-        <v>164.0930616600429</v>
+        <v>164.093061660043</v>
       </c>
       <c r="Q21" t="n">
-        <v>109.6918661067088</v>
+        <v>109.6918661067089</v>
       </c>
       <c r="R21" t="n">
         <v>53.35342415498113</v>
@@ -32581,10 +32581,10 @@
         <v>15.96155349649229</v>
       </c>
       <c r="T21" t="n">
-        <v>3.46367595354815</v>
+        <v>3.463675953548151</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05653442796868585</v>
+        <v>0.05653442796868587</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7204277924752751</v>
+        <v>0.7204277924752752</v>
       </c>
       <c r="H22" t="n">
-        <v>6.405258009461996</v>
+        <v>6.405258009461997</v>
       </c>
       <c r="I22" t="n">
-        <v>21.66522852280191</v>
+        <v>21.66522852280192</v>
       </c>
       <c r="J22" t="n">
         <v>50.93424492800195</v>
       </c>
       <c r="K22" t="n">
-        <v>83.70061079849103</v>
+        <v>83.70061079849104</v>
       </c>
       <c r="L22" t="n">
         <v>107.1079647103696</v>
       </c>
       <c r="M22" t="n">
-        <v>112.9303311422833</v>
+        <v>112.9303311422834</v>
       </c>
       <c r="N22" t="n">
-        <v>110.245100279421</v>
+        <v>110.2451002794211</v>
       </c>
       <c r="O22" t="n">
         <v>101.8291937945962</v>
       </c>
       <c r="P22" t="n">
-        <v>87.1324668281005</v>
+        <v>87.13246682810052</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.32600360445236</v>
+        <v>60.32600360445237</v>
       </c>
       <c r="R22" t="n">
-        <v>32.39305328711554</v>
+        <v>32.39305328711555</v>
       </c>
       <c r="S22" t="n">
-        <v>12.55509161977365</v>
+        <v>12.55509161977366</v>
       </c>
       <c r="T22" t="n">
-        <v>3.078191476939811</v>
+        <v>3.078191476939812</v>
       </c>
       <c r="U22" t="n">
         <v>0.03929606140774233</v>
@@ -32706,7 +32706,7 @@
         <v>16.44816624617385</v>
       </c>
       <c r="I23" t="n">
-        <v>61.91802067185331</v>
+        <v>61.91802067185332</v>
       </c>
       <c r="J23" t="n">
         <v>136.313199066149</v>
@@ -32718,16 +32718,16 @@
         <v>253.4499201653198</v>
       </c>
       <c r="M23" t="n">
-        <v>282.0118707553741</v>
+        <v>282.0118707553742</v>
       </c>
       <c r="N23" t="n">
-        <v>286.5751176585296</v>
+        <v>286.5751176585297</v>
       </c>
       <c r="O23" t="n">
-        <v>270.6047572913487</v>
+        <v>270.6047572913488</v>
       </c>
       <c r="P23" t="n">
-        <v>230.9548996858399</v>
+        <v>230.95489968584</v>
       </c>
       <c r="Q23" t="n">
         <v>173.4375113112664</v>
@@ -32736,13 +32736,13 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S23" t="n">
-        <v>36.59832426067978</v>
+        <v>36.59832426067979</v>
       </c>
       <c r="T23" t="n">
-        <v>7.030572219467939</v>
+        <v>7.03057221946794</v>
       </c>
       <c r="U23" t="n">
-        <v>0.128485614519117</v>
+        <v>0.1284856145191171</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8593233051240247</v>
+        <v>0.8593233051240248</v>
       </c>
       <c r="H24" t="n">
         <v>8.299254025803082</v>
@@ -32788,7 +32788,7 @@
         <v>29.58635063694559</v>
       </c>
       <c r="J24" t="n">
-        <v>81.18720752489745</v>
+        <v>81.18720752489746</v>
       </c>
       <c r="K24" t="n">
         <v>138.7618689682071</v>
@@ -32806,10 +32806,10 @@
         <v>204.45487426782</v>
       </c>
       <c r="P24" t="n">
-        <v>164.0930616600429</v>
+        <v>164.093061660043</v>
       </c>
       <c r="Q24" t="n">
-        <v>109.6918661067088</v>
+        <v>109.6918661067089</v>
       </c>
       <c r="R24" t="n">
         <v>53.35342415498113</v>
@@ -32818,10 +32818,10 @@
         <v>15.96155349649229</v>
       </c>
       <c r="T24" t="n">
-        <v>3.46367595354815</v>
+        <v>3.463675953548151</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05653442796868585</v>
+        <v>0.05653442796868587</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,46 +32858,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7204277924752751</v>
+        <v>0.7204277924752752</v>
       </c>
       <c r="H25" t="n">
-        <v>6.405258009461996</v>
+        <v>6.405258009461997</v>
       </c>
       <c r="I25" t="n">
-        <v>21.66522852280191</v>
+        <v>21.66522852280192</v>
       </c>
       <c r="J25" t="n">
         <v>50.93424492800195</v>
       </c>
       <c r="K25" t="n">
-        <v>83.70061079849103</v>
+        <v>83.70061079849104</v>
       </c>
       <c r="L25" t="n">
         <v>107.1079647103696</v>
       </c>
       <c r="M25" t="n">
-        <v>112.9303311422833</v>
+        <v>112.9303311422834</v>
       </c>
       <c r="N25" t="n">
-        <v>110.245100279421</v>
+        <v>110.2451002794211</v>
       </c>
       <c r="O25" t="n">
         <v>101.8291937945962</v>
       </c>
       <c r="P25" t="n">
-        <v>87.1324668281005</v>
+        <v>87.13246682810052</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.32600360445236</v>
+        <v>60.32600360445237</v>
       </c>
       <c r="R25" t="n">
-        <v>32.39305328711554</v>
+        <v>32.39305328711555</v>
       </c>
       <c r="S25" t="n">
-        <v>12.55509161977365</v>
+        <v>12.55509161977366</v>
       </c>
       <c r="T25" t="n">
-        <v>3.078191476939811</v>
+        <v>3.078191476939812</v>
       </c>
       <c r="U25" t="n">
         <v>0.03929606140774233</v>
@@ -32943,7 +32943,7 @@
         <v>16.44816624617385</v>
       </c>
       <c r="I26" t="n">
-        <v>61.91802067185331</v>
+        <v>61.91802067185332</v>
       </c>
       <c r="J26" t="n">
         <v>136.313199066149</v>
@@ -32955,16 +32955,16 @@
         <v>253.4499201653198</v>
       </c>
       <c r="M26" t="n">
-        <v>282.0118707553741</v>
+        <v>282.0118707553742</v>
       </c>
       <c r="N26" t="n">
-        <v>286.5751176585296</v>
+        <v>286.5751176585297</v>
       </c>
       <c r="O26" t="n">
-        <v>270.6047572913487</v>
+        <v>270.6047572913488</v>
       </c>
       <c r="P26" t="n">
-        <v>230.9548996858399</v>
+        <v>230.95489968584</v>
       </c>
       <c r="Q26" t="n">
         <v>173.4375113112664</v>
@@ -32973,13 +32973,13 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S26" t="n">
-        <v>36.59832426067978</v>
+        <v>36.59832426067979</v>
       </c>
       <c r="T26" t="n">
-        <v>7.030572219467939</v>
+        <v>7.03057221946794</v>
       </c>
       <c r="U26" t="n">
-        <v>0.128485614519117</v>
+        <v>0.1284856145191171</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8593233051240247</v>
+        <v>0.8593233051240248</v>
       </c>
       <c r="H27" t="n">
         <v>8.299254025803082</v>
@@ -33025,7 +33025,7 @@
         <v>29.58635063694559</v>
       </c>
       <c r="J27" t="n">
-        <v>81.18720752489745</v>
+        <v>81.18720752489746</v>
       </c>
       <c r="K27" t="n">
         <v>138.7618689682071</v>
@@ -33043,10 +33043,10 @@
         <v>204.45487426782</v>
       </c>
       <c r="P27" t="n">
-        <v>164.0930616600429</v>
+        <v>164.093061660043</v>
       </c>
       <c r="Q27" t="n">
-        <v>109.6918661067088</v>
+        <v>109.6918661067089</v>
       </c>
       <c r="R27" t="n">
         <v>53.35342415498113</v>
@@ -33055,10 +33055,10 @@
         <v>15.96155349649229</v>
       </c>
       <c r="T27" t="n">
-        <v>3.46367595354815</v>
+        <v>3.463675953548151</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05653442796868585</v>
+        <v>0.05653442796868587</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,46 +33095,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7204277924752751</v>
+        <v>0.7204277924752752</v>
       </c>
       <c r="H28" t="n">
-        <v>6.405258009461996</v>
+        <v>6.405258009461997</v>
       </c>
       <c r="I28" t="n">
-        <v>21.66522852280191</v>
+        <v>21.66522852280192</v>
       </c>
       <c r="J28" t="n">
         <v>50.93424492800195</v>
       </c>
       <c r="K28" t="n">
-        <v>83.70061079849103</v>
+        <v>83.70061079849104</v>
       </c>
       <c r="L28" t="n">
         <v>107.1079647103696</v>
       </c>
       <c r="M28" t="n">
-        <v>112.9303311422833</v>
+        <v>112.9303311422834</v>
       </c>
       <c r="N28" t="n">
-        <v>110.245100279421</v>
+        <v>110.2451002794211</v>
       </c>
       <c r="O28" t="n">
         <v>101.8291937945962</v>
       </c>
       <c r="P28" t="n">
-        <v>87.1324668281005</v>
+        <v>87.13246682810052</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.32600360445236</v>
+        <v>60.32600360445237</v>
       </c>
       <c r="R28" t="n">
-        <v>32.39305328711554</v>
+        <v>32.39305328711555</v>
       </c>
       <c r="S28" t="n">
-        <v>12.55509161977365</v>
+        <v>12.55509161977366</v>
       </c>
       <c r="T28" t="n">
-        <v>3.078191476939811</v>
+        <v>3.078191476939812</v>
       </c>
       <c r="U28" t="n">
         <v>0.03929606140774233</v>
@@ -33180,7 +33180,7 @@
         <v>16.44816624617385</v>
       </c>
       <c r="I29" t="n">
-        <v>61.91802067185331</v>
+        <v>61.91802067185332</v>
       </c>
       <c r="J29" t="n">
         <v>136.313199066149</v>
@@ -33192,16 +33192,16 @@
         <v>253.4499201653198</v>
       </c>
       <c r="M29" t="n">
-        <v>282.0118707553741</v>
+        <v>282.0118707553742</v>
       </c>
       <c r="N29" t="n">
-        <v>286.5751176585296</v>
+        <v>286.5751176585297</v>
       </c>
       <c r="O29" t="n">
-        <v>270.6047572913487</v>
+        <v>270.6047572913488</v>
       </c>
       <c r="P29" t="n">
-        <v>230.9548996858399</v>
+        <v>230.95489968584</v>
       </c>
       <c r="Q29" t="n">
         <v>173.4375113112664</v>
@@ -33210,13 +33210,13 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S29" t="n">
-        <v>36.59832426067978</v>
+        <v>36.59832426067979</v>
       </c>
       <c r="T29" t="n">
-        <v>7.030572219467939</v>
+        <v>7.03057221946794</v>
       </c>
       <c r="U29" t="n">
-        <v>0.128485614519117</v>
+        <v>0.1284856145191171</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8593233051240247</v>
+        <v>0.8593233051240248</v>
       </c>
       <c r="H30" t="n">
         <v>8.299254025803082</v>
@@ -33262,7 +33262,7 @@
         <v>29.58635063694559</v>
       </c>
       <c r="J30" t="n">
-        <v>81.18720752489745</v>
+        <v>81.18720752489746</v>
       </c>
       <c r="K30" t="n">
         <v>138.7618689682071</v>
@@ -33280,10 +33280,10 @@
         <v>204.45487426782</v>
       </c>
       <c r="P30" t="n">
-        <v>164.0930616600429</v>
+        <v>164.093061660043</v>
       </c>
       <c r="Q30" t="n">
-        <v>109.6918661067088</v>
+        <v>109.6918661067089</v>
       </c>
       <c r="R30" t="n">
         <v>53.35342415498113</v>
@@ -33292,10 +33292,10 @@
         <v>15.96155349649229</v>
       </c>
       <c r="T30" t="n">
-        <v>3.46367595354815</v>
+        <v>3.463675953548151</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05653442796868585</v>
+        <v>0.05653442796868587</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,46 +33332,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7204277924752751</v>
+        <v>0.7204277924752752</v>
       </c>
       <c r="H31" t="n">
-        <v>6.405258009461996</v>
+        <v>6.405258009461997</v>
       </c>
       <c r="I31" t="n">
-        <v>21.66522852280191</v>
+        <v>21.66522852280192</v>
       </c>
       <c r="J31" t="n">
         <v>50.93424492800195</v>
       </c>
       <c r="K31" t="n">
-        <v>83.70061079849103</v>
+        <v>83.70061079849104</v>
       </c>
       <c r="L31" t="n">
         <v>107.1079647103696</v>
       </c>
       <c r="M31" t="n">
-        <v>112.9303311422833</v>
+        <v>112.9303311422834</v>
       </c>
       <c r="N31" t="n">
-        <v>110.245100279421</v>
+        <v>110.2451002794211</v>
       </c>
       <c r="O31" t="n">
         <v>101.8291937945962</v>
       </c>
       <c r="P31" t="n">
-        <v>87.1324668281005</v>
+        <v>87.13246682810052</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.32600360445236</v>
+        <v>60.32600360445237</v>
       </c>
       <c r="R31" t="n">
-        <v>32.39305328711554</v>
+        <v>32.39305328711555</v>
       </c>
       <c r="S31" t="n">
-        <v>12.55509161977365</v>
+        <v>12.55509161977366</v>
       </c>
       <c r="T31" t="n">
-        <v>3.078191476939811</v>
+        <v>3.078191476939812</v>
       </c>
       <c r="U31" t="n">
         <v>0.03929606140774233</v>
@@ -33417,7 +33417,7 @@
         <v>16.44816624617385</v>
       </c>
       <c r="I32" t="n">
-        <v>61.91802067185331</v>
+        <v>61.91802067185332</v>
       </c>
       <c r="J32" t="n">
         <v>136.313199066149</v>
@@ -33429,16 +33429,16 @@
         <v>253.4499201653198</v>
       </c>
       <c r="M32" t="n">
-        <v>282.0118707553741</v>
+        <v>282.0118707553742</v>
       </c>
       <c r="N32" t="n">
-        <v>286.5751176585296</v>
+        <v>286.5751176585297</v>
       </c>
       <c r="O32" t="n">
-        <v>270.6047572913487</v>
+        <v>270.6047572913488</v>
       </c>
       <c r="P32" t="n">
-        <v>230.9548996858399</v>
+        <v>230.95489968584</v>
       </c>
       <c r="Q32" t="n">
         <v>173.4375113112664</v>
@@ -33447,13 +33447,13 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S32" t="n">
-        <v>36.59832426067978</v>
+        <v>36.59832426067979</v>
       </c>
       <c r="T32" t="n">
-        <v>7.030572219467939</v>
+        <v>7.03057221946794</v>
       </c>
       <c r="U32" t="n">
-        <v>0.128485614519117</v>
+        <v>0.1284856145191171</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8593233051240247</v>
+        <v>0.8593233051240248</v>
       </c>
       <c r="H33" t="n">
         <v>8.299254025803082</v>
@@ -33499,7 +33499,7 @@
         <v>29.58635063694559</v>
       </c>
       <c r="J33" t="n">
-        <v>81.18720752489745</v>
+        <v>81.18720752489746</v>
       </c>
       <c r="K33" t="n">
         <v>138.7618689682071</v>
@@ -33517,10 +33517,10 @@
         <v>204.45487426782</v>
       </c>
       <c r="P33" t="n">
-        <v>164.0930616600429</v>
+        <v>164.093061660043</v>
       </c>
       <c r="Q33" t="n">
-        <v>109.6918661067088</v>
+        <v>109.6918661067089</v>
       </c>
       <c r="R33" t="n">
         <v>53.35342415498113</v>
@@ -33529,10 +33529,10 @@
         <v>15.96155349649229</v>
       </c>
       <c r="T33" t="n">
-        <v>3.46367595354815</v>
+        <v>3.463675953548151</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05653442796868585</v>
+        <v>0.05653442796868587</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,46 +33569,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7204277924752751</v>
+        <v>0.7204277924752752</v>
       </c>
       <c r="H34" t="n">
-        <v>6.405258009461996</v>
+        <v>6.405258009461997</v>
       </c>
       <c r="I34" t="n">
-        <v>21.66522852280191</v>
+        <v>21.66522852280192</v>
       </c>
       <c r="J34" t="n">
         <v>50.93424492800195</v>
       </c>
       <c r="K34" t="n">
-        <v>83.70061079849103</v>
+        <v>83.70061079849104</v>
       </c>
       <c r="L34" t="n">
         <v>107.1079647103696</v>
       </c>
       <c r="M34" t="n">
-        <v>112.9303311422833</v>
+        <v>112.9303311422834</v>
       </c>
       <c r="N34" t="n">
-        <v>110.245100279421</v>
+        <v>110.2451002794211</v>
       </c>
       <c r="O34" t="n">
         <v>101.8291937945962</v>
       </c>
       <c r="P34" t="n">
-        <v>87.1324668281005</v>
+        <v>87.13246682810052</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.32600360445236</v>
+        <v>60.32600360445237</v>
       </c>
       <c r="R34" t="n">
-        <v>32.39305328711554</v>
+        <v>32.39305328711555</v>
       </c>
       <c r="S34" t="n">
-        <v>12.55509161977365</v>
+        <v>12.55509161977366</v>
       </c>
       <c r="T34" t="n">
-        <v>3.078191476939811</v>
+        <v>3.078191476939812</v>
       </c>
       <c r="U34" t="n">
         <v>0.03929606140774233</v>
@@ -33654,7 +33654,7 @@
         <v>16.44816624617385</v>
       </c>
       <c r="I35" t="n">
-        <v>61.91802067185331</v>
+        <v>61.91802067185332</v>
       </c>
       <c r="J35" t="n">
         <v>136.313199066149</v>
@@ -33666,16 +33666,16 @@
         <v>253.4499201653198</v>
       </c>
       <c r="M35" t="n">
-        <v>282.0118707553741</v>
+        <v>282.0118707553742</v>
       </c>
       <c r="N35" t="n">
-        <v>286.5751176585296</v>
+        <v>286.5751176585297</v>
       </c>
       <c r="O35" t="n">
-        <v>270.6047572913487</v>
+        <v>270.6047572913488</v>
       </c>
       <c r="P35" t="n">
-        <v>230.9548996858399</v>
+        <v>230.95489968584</v>
       </c>
       <c r="Q35" t="n">
         <v>173.4375113112664</v>
@@ -33684,13 +33684,13 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S35" t="n">
-        <v>36.59832426067978</v>
+        <v>36.59832426067979</v>
       </c>
       <c r="T35" t="n">
-        <v>7.030572219467939</v>
+        <v>7.03057221946794</v>
       </c>
       <c r="U35" t="n">
-        <v>0.128485614519117</v>
+        <v>0.1284856145191171</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8593233051240247</v>
+        <v>0.8593233051240248</v>
       </c>
       <c r="H36" t="n">
         <v>8.299254025803082</v>
@@ -33736,7 +33736,7 @@
         <v>29.58635063694559</v>
       </c>
       <c r="J36" t="n">
-        <v>81.18720752489745</v>
+        <v>81.18720752489746</v>
       </c>
       <c r="K36" t="n">
         <v>138.7618689682071</v>
@@ -33754,10 +33754,10 @@
         <v>204.45487426782</v>
       </c>
       <c r="P36" t="n">
-        <v>164.0930616600429</v>
+        <v>164.093061660043</v>
       </c>
       <c r="Q36" t="n">
-        <v>109.6918661067088</v>
+        <v>109.6918661067089</v>
       </c>
       <c r="R36" t="n">
         <v>53.35342415498113</v>
@@ -33766,10 +33766,10 @@
         <v>15.96155349649229</v>
       </c>
       <c r="T36" t="n">
-        <v>3.46367595354815</v>
+        <v>3.463675953548151</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05653442796868585</v>
+        <v>0.05653442796868587</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,46 +33806,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7204277924752751</v>
+        <v>0.7204277924752752</v>
       </c>
       <c r="H37" t="n">
-        <v>6.405258009461996</v>
+        <v>6.405258009461997</v>
       </c>
       <c r="I37" t="n">
-        <v>21.66522852280191</v>
+        <v>21.66522852280192</v>
       </c>
       <c r="J37" t="n">
         <v>50.93424492800195</v>
       </c>
       <c r="K37" t="n">
-        <v>83.70061079849103</v>
+        <v>83.70061079849104</v>
       </c>
       <c r="L37" t="n">
         <v>107.1079647103696</v>
       </c>
       <c r="M37" t="n">
-        <v>112.9303311422833</v>
+        <v>112.9303311422834</v>
       </c>
       <c r="N37" t="n">
-        <v>110.245100279421</v>
+        <v>110.2451002794211</v>
       </c>
       <c r="O37" t="n">
         <v>101.8291937945962</v>
       </c>
       <c r="P37" t="n">
-        <v>87.1324668281005</v>
+        <v>87.13246682810052</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.32600360445236</v>
+        <v>60.32600360445237</v>
       </c>
       <c r="R37" t="n">
-        <v>32.39305328711554</v>
+        <v>32.39305328711555</v>
       </c>
       <c r="S37" t="n">
-        <v>12.55509161977365</v>
+        <v>12.55509161977366</v>
       </c>
       <c r="T37" t="n">
-        <v>3.078191476939811</v>
+        <v>3.078191476939812</v>
       </c>
       <c r="U37" t="n">
         <v>0.03929606140774233</v>
@@ -33891,7 +33891,7 @@
         <v>16.44816624617385</v>
       </c>
       <c r="I38" t="n">
-        <v>61.91802067185331</v>
+        <v>61.91802067185332</v>
       </c>
       <c r="J38" t="n">
         <v>136.313199066149</v>
@@ -33903,16 +33903,16 @@
         <v>253.4499201653198</v>
       </c>
       <c r="M38" t="n">
-        <v>282.0118707553741</v>
+        <v>282.0118707553742</v>
       </c>
       <c r="N38" t="n">
-        <v>286.5751176585296</v>
+        <v>286.5751176585297</v>
       </c>
       <c r="O38" t="n">
-        <v>270.6047572913487</v>
+        <v>270.6047572913488</v>
       </c>
       <c r="P38" t="n">
-        <v>230.9548996858399</v>
+        <v>230.95489968584</v>
       </c>
       <c r="Q38" t="n">
         <v>173.4375113112664</v>
@@ -33921,13 +33921,13 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S38" t="n">
-        <v>36.59832426067978</v>
+        <v>36.59832426067979</v>
       </c>
       <c r="T38" t="n">
-        <v>7.030572219467939</v>
+        <v>7.03057221946794</v>
       </c>
       <c r="U38" t="n">
-        <v>0.128485614519117</v>
+        <v>0.1284856145191171</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8593233051240247</v>
+        <v>0.8593233051240248</v>
       </c>
       <c r="H39" t="n">
         <v>8.299254025803082</v>
@@ -33973,7 +33973,7 @@
         <v>29.58635063694559</v>
       </c>
       <c r="J39" t="n">
-        <v>81.18720752489745</v>
+        <v>81.18720752489746</v>
       </c>
       <c r="K39" t="n">
         <v>138.7618689682071</v>
@@ -33991,10 +33991,10 @@
         <v>204.45487426782</v>
       </c>
       <c r="P39" t="n">
-        <v>164.0930616600429</v>
+        <v>164.093061660043</v>
       </c>
       <c r="Q39" t="n">
-        <v>109.6918661067088</v>
+        <v>109.6918661067089</v>
       </c>
       <c r="R39" t="n">
         <v>53.35342415498113</v>
@@ -34003,10 +34003,10 @@
         <v>15.96155349649229</v>
       </c>
       <c r="T39" t="n">
-        <v>3.46367595354815</v>
+        <v>3.463675953548151</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05653442796868585</v>
+        <v>0.05653442796868587</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,46 +34043,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7204277924752751</v>
+        <v>0.7204277924752752</v>
       </c>
       <c r="H40" t="n">
-        <v>6.405258009461996</v>
+        <v>6.405258009461997</v>
       </c>
       <c r="I40" t="n">
-        <v>21.66522852280191</v>
+        <v>21.66522852280192</v>
       </c>
       <c r="J40" t="n">
         <v>50.93424492800195</v>
       </c>
       <c r="K40" t="n">
-        <v>83.70061079849103</v>
+        <v>83.70061079849104</v>
       </c>
       <c r="L40" t="n">
         <v>107.1079647103696</v>
       </c>
       <c r="M40" t="n">
-        <v>112.9303311422833</v>
+        <v>112.9303311422834</v>
       </c>
       <c r="N40" t="n">
-        <v>110.245100279421</v>
+        <v>110.2451002794211</v>
       </c>
       <c r="O40" t="n">
         <v>101.8291937945962</v>
       </c>
       <c r="P40" t="n">
-        <v>87.1324668281005</v>
+        <v>87.13246682810052</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.32600360445236</v>
+        <v>60.32600360445237</v>
       </c>
       <c r="R40" t="n">
-        <v>32.39305328711554</v>
+        <v>32.39305328711555</v>
       </c>
       <c r="S40" t="n">
-        <v>12.55509161977365</v>
+        <v>12.55509161977366</v>
       </c>
       <c r="T40" t="n">
-        <v>3.078191476939811</v>
+        <v>3.078191476939812</v>
       </c>
       <c r="U40" t="n">
         <v>0.03929606140774233</v>
@@ -34128,7 +34128,7 @@
         <v>16.44816624617385</v>
       </c>
       <c r="I41" t="n">
-        <v>61.91802067185331</v>
+        <v>61.91802067185332</v>
       </c>
       <c r="J41" t="n">
         <v>136.313199066149</v>
@@ -34140,16 +34140,16 @@
         <v>253.4499201653198</v>
       </c>
       <c r="M41" t="n">
-        <v>282.0118707553741</v>
+        <v>282.0118707553742</v>
       </c>
       <c r="N41" t="n">
-        <v>286.5751176585296</v>
+        <v>286.5751176585297</v>
       </c>
       <c r="O41" t="n">
-        <v>270.6047572913487</v>
+        <v>270.6047572913488</v>
       </c>
       <c r="P41" t="n">
-        <v>230.9548996858399</v>
+        <v>230.95489968584</v>
       </c>
       <c r="Q41" t="n">
         <v>173.4375113112664</v>
@@ -34158,13 +34158,13 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S41" t="n">
-        <v>36.59832426067978</v>
+        <v>36.59832426067979</v>
       </c>
       <c r="T41" t="n">
-        <v>7.030572219467939</v>
+        <v>7.03057221946794</v>
       </c>
       <c r="U41" t="n">
-        <v>0.128485614519117</v>
+        <v>0.1284856145191171</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8593233051240247</v>
+        <v>0.8593233051240248</v>
       </c>
       <c r="H42" t="n">
         <v>8.299254025803082</v>
@@ -34210,7 +34210,7 @@
         <v>29.58635063694559</v>
       </c>
       <c r="J42" t="n">
-        <v>81.18720752489745</v>
+        <v>81.18720752489746</v>
       </c>
       <c r="K42" t="n">
         <v>138.7618689682071</v>
@@ -34228,10 +34228,10 @@
         <v>204.45487426782</v>
       </c>
       <c r="P42" t="n">
-        <v>164.0930616600429</v>
+        <v>164.093061660043</v>
       </c>
       <c r="Q42" t="n">
-        <v>109.6918661067088</v>
+        <v>109.6918661067089</v>
       </c>
       <c r="R42" t="n">
         <v>53.35342415498113</v>
@@ -34240,10 +34240,10 @@
         <v>15.96155349649229</v>
       </c>
       <c r="T42" t="n">
-        <v>3.46367595354815</v>
+        <v>3.463675953548151</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05653442796868585</v>
+        <v>0.05653442796868587</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,46 +34280,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7204277924752751</v>
+        <v>0.7204277924752752</v>
       </c>
       <c r="H43" t="n">
-        <v>6.405258009461996</v>
+        <v>6.405258009461997</v>
       </c>
       <c r="I43" t="n">
-        <v>21.66522852280191</v>
+        <v>21.66522852280192</v>
       </c>
       <c r="J43" t="n">
         <v>50.93424492800195</v>
       </c>
       <c r="K43" t="n">
-        <v>83.70061079849103</v>
+        <v>83.70061079849104</v>
       </c>
       <c r="L43" t="n">
         <v>107.1079647103696</v>
       </c>
       <c r="M43" t="n">
-        <v>112.9303311422833</v>
+        <v>112.9303311422834</v>
       </c>
       <c r="N43" t="n">
-        <v>110.245100279421</v>
+        <v>110.2451002794211</v>
       </c>
       <c r="O43" t="n">
         <v>101.8291937945962</v>
       </c>
       <c r="P43" t="n">
-        <v>87.1324668281005</v>
+        <v>87.13246682810052</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.32600360445236</v>
+        <v>60.32600360445237</v>
       </c>
       <c r="R43" t="n">
-        <v>32.39305328711554</v>
+        <v>32.39305328711555</v>
       </c>
       <c r="S43" t="n">
-        <v>12.55509161977365</v>
+        <v>12.55509161977366</v>
       </c>
       <c r="T43" t="n">
-        <v>3.078191476939811</v>
+        <v>3.078191476939812</v>
       </c>
       <c r="U43" t="n">
         <v>0.03929606140774233</v>
@@ -34365,7 +34365,7 @@
         <v>16.44816624617385</v>
       </c>
       <c r="I44" t="n">
-        <v>61.91802067185331</v>
+        <v>61.91802067185332</v>
       </c>
       <c r="J44" t="n">
         <v>136.313199066149</v>
@@ -34377,16 +34377,16 @@
         <v>253.4499201653198</v>
       </c>
       <c r="M44" t="n">
-        <v>282.0118707553741</v>
+        <v>282.0118707553742</v>
       </c>
       <c r="N44" t="n">
-        <v>286.5751176585296</v>
+        <v>286.5751176585297</v>
       </c>
       <c r="O44" t="n">
-        <v>270.6047572913487</v>
+        <v>270.6047572913488</v>
       </c>
       <c r="P44" t="n">
-        <v>230.9548996858399</v>
+        <v>230.95489968584</v>
       </c>
       <c r="Q44" t="n">
         <v>173.4375113112664</v>
@@ -34395,13 +34395,13 @@
         <v>100.8873060379562</v>
       </c>
       <c r="S44" t="n">
-        <v>36.59832426067978</v>
+        <v>36.59832426067979</v>
       </c>
       <c r="T44" t="n">
-        <v>7.030572219467939</v>
+        <v>7.03057221946794</v>
       </c>
       <c r="U44" t="n">
-        <v>0.128485614519117</v>
+        <v>0.1284856145191171</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8593233051240247</v>
+        <v>0.8593233051240248</v>
       </c>
       <c r="H45" t="n">
         <v>8.299254025803082</v>
@@ -34447,7 +34447,7 @@
         <v>29.58635063694559</v>
       </c>
       <c r="J45" t="n">
-        <v>81.18720752489745</v>
+        <v>81.18720752489746</v>
       </c>
       <c r="K45" t="n">
         <v>138.7618689682071</v>
@@ -34465,10 +34465,10 @@
         <v>204.45487426782</v>
       </c>
       <c r="P45" t="n">
-        <v>164.0930616600429</v>
+        <v>164.093061660043</v>
       </c>
       <c r="Q45" t="n">
-        <v>109.6918661067088</v>
+        <v>109.6918661067089</v>
       </c>
       <c r="R45" t="n">
         <v>53.35342415498113</v>
@@ -34477,10 +34477,10 @@
         <v>15.96155349649229</v>
       </c>
       <c r="T45" t="n">
-        <v>3.46367595354815</v>
+        <v>3.463675953548151</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05653442796868585</v>
+        <v>0.05653442796868587</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,46 +34517,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7204277924752751</v>
+        <v>0.7204277924752752</v>
       </c>
       <c r="H46" t="n">
-        <v>6.405258009461996</v>
+        <v>6.405258009461997</v>
       </c>
       <c r="I46" t="n">
-        <v>21.66522852280191</v>
+        <v>21.66522852280192</v>
       </c>
       <c r="J46" t="n">
         <v>50.93424492800195</v>
       </c>
       <c r="K46" t="n">
-        <v>83.70061079849103</v>
+        <v>83.70061079849104</v>
       </c>
       <c r="L46" t="n">
         <v>107.1079647103696</v>
       </c>
       <c r="M46" t="n">
-        <v>112.9303311422833</v>
+        <v>112.9303311422834</v>
       </c>
       <c r="N46" t="n">
-        <v>110.245100279421</v>
+        <v>110.2451002794211</v>
       </c>
       <c r="O46" t="n">
         <v>101.8291937945962</v>
       </c>
       <c r="P46" t="n">
-        <v>87.1324668281005</v>
+        <v>87.13246682810052</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.32600360445236</v>
+        <v>60.32600360445237</v>
       </c>
       <c r="R46" t="n">
-        <v>32.39305328711554</v>
+        <v>32.39305328711555</v>
       </c>
       <c r="S46" t="n">
-        <v>12.55509161977365</v>
+        <v>12.55509161977366</v>
       </c>
       <c r="T46" t="n">
-        <v>3.078191476939811</v>
+        <v>3.078191476939812</v>
       </c>
       <c r="U46" t="n">
         <v>0.03929606140774233</v>
@@ -35412,28 +35412,28 @@
         <v>282.424080792238</v>
       </c>
       <c r="K11" t="n">
-        <v>61.2397466693395</v>
+        <v>491.0437363505433</v>
       </c>
       <c r="L11" t="n">
-        <v>526.8586796000361</v>
+        <v>100.2017504348281</v>
       </c>
       <c r="M11" t="n">
-        <v>570.3070539860549</v>
+        <v>132.2868191576469</v>
       </c>
       <c r="N11" t="n">
-        <v>137.4566263207455</v>
+        <v>137.4566263207456</v>
       </c>
       <c r="O11" t="n">
-        <v>570.3070539860549</v>
+        <v>121.0409198672524</v>
       </c>
       <c r="P11" t="n">
-        <v>80.65345244491473</v>
+        <v>570.3070539860548</v>
       </c>
       <c r="Q11" t="n">
-        <v>28.93881289287421</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>63.2743214606229</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K12" t="n">
-        <v>400.9925069557083</v>
+        <v>49.16493363487378</v>
       </c>
       <c r="L12" t="n">
-        <v>570.3070539860549</v>
+        <v>570.3070539860548</v>
       </c>
       <c r="M12" t="n">
         <v>125.3458048674201</v>
@@ -35503,16 +35503,16 @@
         <v>138.1235567535068</v>
       </c>
       <c r="O12" t="n">
-        <v>570.3070539860549</v>
+        <v>561.1130737068852</v>
       </c>
       <c r="P12" t="n">
-        <v>77.00969684072828</v>
+        <v>570.3070539860548</v>
       </c>
       <c r="Q12" t="n">
-        <v>346.4242818187195</v>
+        <v>18.70371295079487</v>
       </c>
       <c r="R12" t="n">
-        <v>29.67555148406502</v>
+        <v>29.67555148406503</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.85975745584287</v>
+        <v>20.85975745584288</v>
       </c>
       <c r="K13" t="n">
         <v>166.362268485301</v>
@@ -35582,13 +35582,13 @@
         <v>295.2851346543798</v>
       </c>
       <c r="O13" t="n">
-        <v>266.177443331675</v>
+        <v>266.1774433316751</v>
       </c>
       <c r="P13" t="n">
         <v>208.2195029660587</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.78276761460484</v>
+        <v>63.78276761460485</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>18.6333611238029</v>
+        <v>282.424080792238</v>
       </c>
       <c r="K14" t="n">
-        <v>566.9065902803565</v>
+        <v>491.0437363505433</v>
       </c>
       <c r="L14" t="n">
-        <v>570.3070539860549</v>
+        <v>100.2017504348281</v>
       </c>
       <c r="M14" t="n">
-        <v>132.2868191576468</v>
+        <v>132.2868191576469</v>
       </c>
       <c r="N14" t="n">
-        <v>137.4566263207455</v>
+        <v>137.4566263207456</v>
       </c>
       <c r="O14" t="n">
-        <v>121.0409198672523</v>
+        <v>121.0409198672524</v>
       </c>
       <c r="P14" t="n">
-        <v>570.3070539860549</v>
+        <v>570.3070539860548</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.2470819703437</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>63.2743214606229</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K15" t="n">
-        <v>49.16493363487375</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L15" t="n">
-        <v>570.3070539860549</v>
+        <v>279.3664737064618</v>
       </c>
       <c r="M15" t="n">
         <v>125.3458048674201</v>
       </c>
       <c r="N15" t="n">
-        <v>570.3070539860549</v>
+        <v>138.1235567535068</v>
       </c>
       <c r="O15" t="n">
-        <v>354.0498932810044</v>
+        <v>111.7673153789311</v>
       </c>
       <c r="P15" t="n">
-        <v>570.3070539860549</v>
+        <v>570.3070539860548</v>
       </c>
       <c r="Q15" t="n">
-        <v>18.70371295079485</v>
+        <v>346.4242818187195</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.67555148406503</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.85975745584287</v>
+        <v>20.85975745584288</v>
       </c>
       <c r="K16" t="n">
         <v>166.362268485301</v>
@@ -35819,13 +35819,13 @@
         <v>295.2851346543798</v>
       </c>
       <c r="O16" t="n">
-        <v>266.177443331675</v>
+        <v>266.1774433316751</v>
       </c>
       <c r="P16" t="n">
         <v>208.2195029660587</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.78276761460484</v>
+        <v>63.78276761460485</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>18.6333611238029</v>
+        <v>282.424080792238</v>
       </c>
       <c r="K17" t="n">
-        <v>61.2397466693395</v>
+        <v>566.9065902803566</v>
       </c>
       <c r="L17" t="n">
-        <v>570.3070539860549</v>
+        <v>570.3070539860548</v>
       </c>
       <c r="M17" t="n">
-        <v>132.2868191576468</v>
+        <v>139.2465846783699</v>
       </c>
       <c r="N17" t="n">
-        <v>137.4566263207455</v>
+        <v>137.4566263207456</v>
       </c>
       <c r="O17" t="n">
-        <v>570.3070539860549</v>
+        <v>121.0409198672524</v>
       </c>
       <c r="P17" t="n">
-        <v>570.3070539860549</v>
+        <v>80.65345244491476</v>
       </c>
       <c r="Q17" t="n">
-        <v>197.6477914625582</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K18" t="n">
-        <v>49.16493363487375</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L18" t="n">
-        <v>96.52211024906792</v>
+        <v>96.52211024906795</v>
       </c>
       <c r="M18" t="n">
-        <v>548.4503761767585</v>
+        <v>308.190168324814</v>
       </c>
       <c r="N18" t="n">
-        <v>570.3070539860549</v>
+        <v>138.1235567535068</v>
       </c>
       <c r="O18" t="n">
-        <v>570.3070539860549</v>
+        <v>111.7673153789311</v>
       </c>
       <c r="P18" t="n">
-        <v>77.00969684072828</v>
+        <v>570.3070539860548</v>
       </c>
       <c r="Q18" t="n">
         <v>346.4242818187195</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.67555148406503</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.85975745584287</v>
+        <v>20.85975745584288</v>
       </c>
       <c r="K19" t="n">
         <v>166.362268485301</v>
@@ -36056,13 +36056,13 @@
         <v>295.2851346543798</v>
       </c>
       <c r="O19" t="n">
-        <v>266.177443331675</v>
+        <v>266.1774433316751</v>
       </c>
       <c r="P19" t="n">
         <v>208.2195029660587</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.78276761460484</v>
+        <v>63.78276761460485</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>282.424080792238</v>
       </c>
       <c r="K20" t="n">
-        <v>61.2397466693395</v>
+        <v>510.5920343404574</v>
       </c>
       <c r="L20" t="n">
-        <v>100.2017504348281</v>
+        <v>570.3070539860551</v>
       </c>
       <c r="M20" t="n">
-        <v>132.2868191576468</v>
+        <v>132.2868191576469</v>
       </c>
       <c r="N20" t="n">
-        <v>137.4566263207455</v>
+        <v>137.4566263207456</v>
       </c>
       <c r="O20" t="n">
-        <v>570.3070539860549</v>
+        <v>121.0409198672524</v>
       </c>
       <c r="P20" t="n">
-        <v>570.3070539860549</v>
+        <v>80.65345244491476</v>
       </c>
       <c r="Q20" t="n">
-        <v>340.6880538847273</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R20" t="n">
-        <v>63.27432146062289</v>
+        <v>63.2743214606229</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K21" t="n">
-        <v>49.16493363487375</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L21" t="n">
-        <v>96.52211024906792</v>
+        <v>279.3664737064622</v>
       </c>
       <c r="M21" t="n">
         <v>125.3458048674201</v>
       </c>
       <c r="N21" t="n">
-        <v>570.3070539860549</v>
+        <v>138.1235567535068</v>
       </c>
       <c r="O21" t="n">
-        <v>470.4387166660011</v>
+        <v>111.7673153789311</v>
       </c>
       <c r="P21" t="n">
-        <v>570.3070539860549</v>
+        <v>570.3070539860551</v>
       </c>
       <c r="Q21" t="n">
         <v>346.4242818187195</v>
       </c>
       <c r="R21" t="n">
-        <v>29.67555148406502</v>
+        <v>29.67555148406503</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>20.85975745584287</v>
+        <v>20.85975745584288</v>
       </c>
       <c r="K22" t="n">
         <v>166.362268485301</v>
@@ -36293,13 +36293,13 @@
         <v>295.2851346543798</v>
       </c>
       <c r="O22" t="n">
-        <v>266.177443331675</v>
+        <v>266.1774433316751</v>
       </c>
       <c r="P22" t="n">
         <v>208.2195029660587</v>
       </c>
       <c r="Q22" t="n">
-        <v>63.78276761460484</v>
+        <v>63.78276761460485</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>282.424080792238</v>
       </c>
       <c r="K23" t="n">
-        <v>566.9065902803565</v>
+        <v>566.9065902803566</v>
       </c>
       <c r="L23" t="n">
         <v>751.7532451335308</v>
       </c>
       <c r="M23" t="n">
-        <v>833.5279314064655</v>
+        <v>833.5279314064657</v>
       </c>
       <c r="N23" t="n">
         <v>819.7178284034408</v>
       </c>
       <c r="O23" t="n">
-        <v>255.9573803931099</v>
+        <v>715.089202637135</v>
       </c>
       <c r="P23" t="n">
-        <v>582.6594371924276</v>
+        <v>123.5276149484035</v>
       </c>
       <c r="Q23" t="n">
         <v>360.1501983223255</v>
       </c>
       <c r="R23" t="n">
-        <v>63.27432146062289</v>
+        <v>63.2743214606229</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K24" t="n">
-        <v>49.16493363487375</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L24" t="n">
-        <v>96.52211024906792</v>
+        <v>275.8619117734863</v>
       </c>
       <c r="M24" t="n">
-        <v>795.0728424606672</v>
+        <v>125.3458048674201</v>
       </c>
       <c r="N24" t="n">
         <v>138.1235567535068</v>
       </c>
       <c r="O24" t="n">
-        <v>726.1925334506291</v>
+        <v>111.7673153789311</v>
       </c>
       <c r="P24" t="n">
-        <v>77.00969684072828</v>
+        <v>573.8116159190303</v>
       </c>
       <c r="Q24" t="n">
         <v>346.4242818187195</v>
       </c>
       <c r="R24" t="n">
-        <v>29.67555148406502</v>
+        <v>29.67555148406503</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>20.85975745584287</v>
+        <v>20.85975745584288</v>
       </c>
       <c r="K25" t="n">
         <v>166.362268485301</v>
@@ -36530,13 +36530,13 @@
         <v>295.2851346543798</v>
       </c>
       <c r="O25" t="n">
-        <v>266.177443331675</v>
+        <v>266.1774433316751</v>
       </c>
       <c r="P25" t="n">
         <v>208.2195029660587</v>
       </c>
       <c r="Q25" t="n">
-        <v>63.78276761460484</v>
+        <v>63.78276761460485</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>282.424080792238</v>
       </c>
       <c r="K26" t="n">
-        <v>107.7747680363315</v>
+        <v>566.9065902803566</v>
       </c>
       <c r="L26" t="n">
         <v>751.7532451335308</v>
       </c>
       <c r="M26" t="n">
-        <v>833.5279314064655</v>
+        <v>833.5279314064657</v>
       </c>
       <c r="N26" t="n">
         <v>819.7178284034408</v>
@@ -36612,13 +36612,13 @@
         <v>715.089202637135</v>
       </c>
       <c r="P26" t="n">
-        <v>582.6594371924276</v>
+        <v>186.801936409026</v>
       </c>
       <c r="Q26" t="n">
         <v>360.1501983223255</v>
       </c>
       <c r="R26" t="n">
-        <v>63.27432146062289</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K27" t="n">
-        <v>49.16493363487375</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L27" t="n">
-        <v>96.52211024906792</v>
+        <v>275.8619117734863</v>
       </c>
       <c r="M27" t="n">
-        <v>164.9220374781195</v>
+        <v>125.3458048674201</v>
       </c>
       <c r="N27" t="n">
-        <v>885.8976607294503</v>
+        <v>138.1235567535068</v>
       </c>
       <c r="O27" t="n">
         <v>111.7673153789311</v>
@@ -36697,7 +36697,7 @@
         <v>346.4242818187195</v>
       </c>
       <c r="R27" t="n">
-        <v>29.67555148406502</v>
+        <v>29.67555148406503</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>20.85975745584287</v>
+        <v>20.85975745584288</v>
       </c>
       <c r="K28" t="n">
         <v>166.362268485301</v>
@@ -36767,13 +36767,13 @@
         <v>295.2851346543798</v>
       </c>
       <c r="O28" t="n">
-        <v>266.177443331675</v>
+        <v>266.1774433316751</v>
       </c>
       <c r="P28" t="n">
         <v>208.2195029660587</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.78276761460484</v>
+        <v>63.78276761460485</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>282.424080792238</v>
       </c>
       <c r="K29" t="n">
-        <v>107.7747680363315</v>
+        <v>566.9065902803566</v>
       </c>
       <c r="L29" t="n">
         <v>751.7532451335308</v>
       </c>
       <c r="M29" t="n">
-        <v>833.5279314064655</v>
+        <v>833.5279314064657</v>
       </c>
       <c r="N29" t="n">
         <v>819.7178284034408</v>
@@ -36849,13 +36849,13 @@
         <v>715.089202637135</v>
       </c>
       <c r="P29" t="n">
-        <v>582.6594371924276</v>
+        <v>123.5276149484035</v>
       </c>
       <c r="Q29" t="n">
         <v>360.1501983223255</v>
       </c>
       <c r="R29" t="n">
-        <v>63.27432146062289</v>
+        <v>63.2743214606229</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K30" t="n">
-        <v>49.16493363487375</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L30" t="n">
-        <v>675.0330489224642</v>
+        <v>96.52211024906795</v>
       </c>
       <c r="M30" t="n">
         <v>125.3458048674201</v>
       </c>
       <c r="N30" t="n">
-        <v>843.7648737450555</v>
+        <v>138.1235567535068</v>
       </c>
       <c r="O30" t="n">
-        <v>111.7673153789311</v>
+        <v>291.1071169033494</v>
       </c>
       <c r="P30" t="n">
-        <v>77.00969684072828</v>
+        <v>573.8116159190303</v>
       </c>
       <c r="Q30" t="n">
         <v>346.4242818187195</v>
       </c>
       <c r="R30" t="n">
-        <v>29.67555148406502</v>
+        <v>29.67555148406503</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.85975745584287</v>
+        <v>20.85975745584288</v>
       </c>
       <c r="K31" t="n">
         <v>166.362268485301</v>
@@ -37004,13 +37004,13 @@
         <v>295.2851346543798</v>
       </c>
       <c r="O31" t="n">
-        <v>266.177443331675</v>
+        <v>266.1774433316751</v>
       </c>
       <c r="P31" t="n">
         <v>208.2195029660587</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.78276761460484</v>
+        <v>63.78276761460485</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>282.424080792238</v>
       </c>
       <c r="K32" t="n">
-        <v>566.9065902803565</v>
+        <v>566.9065902803566</v>
       </c>
       <c r="L32" t="n">
         <v>751.7532451335308</v>
       </c>
       <c r="M32" t="n">
-        <v>833.5279314064655</v>
+        <v>833.5279314064657</v>
       </c>
       <c r="N32" t="n">
-        <v>360.5860061594161</v>
+        <v>819.7178284034408</v>
       </c>
       <c r="O32" t="n">
         <v>715.089202637135</v>
       </c>
       <c r="P32" t="n">
-        <v>582.6594371924276</v>
+        <v>186.801936409026</v>
       </c>
       <c r="Q32" t="n">
         <v>360.1501983223255</v>
       </c>
       <c r="R32" t="n">
-        <v>63.27432146062289</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K33" t="n">
-        <v>49.16493363487375</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L33" t="n">
-        <v>96.52211024906792</v>
+        <v>275.8619117734863</v>
       </c>
       <c r="M33" t="n">
-        <v>298.2709233823651</v>
+        <v>125.3458048674201</v>
       </c>
       <c r="N33" t="n">
         <v>138.1235567535068</v>
       </c>
       <c r="O33" t="n">
-        <v>726.1925334506291</v>
+        <v>111.7673153789311</v>
       </c>
       <c r="P33" t="n">
         <v>573.8116159190303</v>
@@ -37171,7 +37171,7 @@
         <v>346.4242818187195</v>
       </c>
       <c r="R33" t="n">
-        <v>29.67555148406502</v>
+        <v>29.67555148406503</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.85975745584287</v>
+        <v>20.85975745584288</v>
       </c>
       <c r="K34" t="n">
         <v>166.362268485301</v>
@@ -37241,13 +37241,13 @@
         <v>295.2851346543798</v>
       </c>
       <c r="O34" t="n">
-        <v>266.177443331675</v>
+        <v>266.1774433316751</v>
       </c>
       <c r="P34" t="n">
         <v>208.2195029660587</v>
       </c>
       <c r="Q34" t="n">
-        <v>63.78276761460484</v>
+        <v>63.78276761460485</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>282.424080792238</v>
       </c>
       <c r="K35" t="n">
-        <v>467.0575064021236</v>
+        <v>61.23974666933952</v>
       </c>
       <c r="L35" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="M35" t="n">
-        <v>570.3070539860551</v>
+        <v>132.2868191576469</v>
       </c>
       <c r="N35" t="n">
-        <v>137.4566263207455</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="O35" t="n">
-        <v>121.0409198672523</v>
+        <v>121.0409198672524</v>
       </c>
       <c r="P35" t="n">
-        <v>80.65345244491473</v>
+        <v>97.15531245072297</v>
       </c>
       <c r="Q35" t="n">
-        <v>28.93881289287421</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>63.2743214606229</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K36" t="n">
-        <v>49.16493363487375</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L36" t="n">
-        <v>428.8372701615619</v>
+        <v>279.3664737064612</v>
       </c>
       <c r="M36" t="n">
         <v>125.3458048674201</v>
@@ -37399,16 +37399,16 @@
         <v>138.1235567535068</v>
       </c>
       <c r="O36" t="n">
-        <v>570.3070539860551</v>
+        <v>111.7673153789311</v>
       </c>
       <c r="P36" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q36" t="n">
         <v>346.4242818187195</v>
       </c>
       <c r="R36" t="n">
-        <v>29.67555148406502</v>
+        <v>29.67555148406503</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>20.85975745584287</v>
+        <v>20.85975745584288</v>
       </c>
       <c r="K37" t="n">
         <v>166.362268485301</v>
@@ -37478,13 +37478,13 @@
         <v>295.2851346543798</v>
       </c>
       <c r="O37" t="n">
-        <v>266.177443331675</v>
+        <v>266.1774433316751</v>
       </c>
       <c r="P37" t="n">
         <v>208.2195029660587</v>
       </c>
       <c r="Q37" t="n">
-        <v>63.78276761460484</v>
+        <v>63.78276761460485</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>18.6333611238029</v>
+        <v>282.424080792238</v>
       </c>
       <c r="K38" t="n">
-        <v>61.2397466693395</v>
+        <v>61.23974666933952</v>
       </c>
       <c r="L38" t="n">
-        <v>396.1636923783972</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="M38" t="n">
-        <v>570.3070539860551</v>
+        <v>132.2868191576469</v>
       </c>
       <c r="N38" t="n">
-        <v>137.4566263207455</v>
+        <v>137.4566263207456</v>
       </c>
       <c r="O38" t="n">
-        <v>570.3070539860551</v>
+        <v>144.0139274578528</v>
       </c>
       <c r="P38" t="n">
-        <v>80.65345244491473</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q38" t="n">
         <v>360.1501983223255</v>
       </c>
       <c r="R38" t="n">
-        <v>63.27432146062289</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K39" t="n">
-        <v>49.16493363487375</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L39" t="n">
-        <v>96.52211024906792</v>
+        <v>279.3664737064612</v>
       </c>
       <c r="M39" t="n">
-        <v>570.3070539860551</v>
+        <v>125.3458048674201</v>
       </c>
       <c r="N39" t="n">
-        <v>570.3070539860551</v>
+        <v>138.1235567535068</v>
       </c>
       <c r="O39" t="n">
-        <v>570.3070539860551</v>
+        <v>111.7673153789311</v>
       </c>
       <c r="P39" t="n">
-        <v>77.00969684072828</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q39" t="n">
-        <v>294.8920525253571</v>
+        <v>346.4242818187195</v>
       </c>
       <c r="R39" t="n">
-        <v>29.67555148406502</v>
+        <v>29.67555148406503</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>20.85975745584287</v>
+        <v>20.85975745584288</v>
       </c>
       <c r="K40" t="n">
         <v>166.362268485301</v>
@@ -37715,13 +37715,13 @@
         <v>295.2851346543798</v>
       </c>
       <c r="O40" t="n">
-        <v>266.177443331675</v>
+        <v>266.1774433316751</v>
       </c>
       <c r="P40" t="n">
         <v>208.2195029660587</v>
       </c>
       <c r="Q40" t="n">
-        <v>63.78276761460484</v>
+        <v>63.78276761460485</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>18.6333611238029</v>
+        <v>282.424080792238</v>
       </c>
       <c r="K41" t="n">
-        <v>566.9065902803565</v>
+        <v>566.9065902803566</v>
       </c>
       <c r="L41" t="n">
         <v>100.2017504348281</v>
       </c>
       <c r="M41" t="n">
-        <v>132.2868191576468</v>
+        <v>132.2868191576469</v>
       </c>
       <c r="N41" t="n">
-        <v>570.3070539860551</v>
+        <v>137.4566263207456</v>
       </c>
       <c r="O41" t="n">
-        <v>121.0409198672523</v>
+        <v>121.0409198672524</v>
       </c>
       <c r="P41" t="n">
-        <v>325.3844920593684</v>
+        <v>557.7185215168651</v>
       </c>
       <c r="Q41" t="n">
         <v>360.1501983223255</v>
       </c>
       <c r="R41" t="n">
-        <v>63.27432146062289</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>195.4447653226019</v>
       </c>
       <c r="K42" t="n">
-        <v>66.32719473028021</v>
+        <v>461.7307033744964</v>
       </c>
       <c r="L42" t="n">
-        <v>570.3070539860551</v>
+        <v>279.3664737064612</v>
       </c>
       <c r="M42" t="n">
         <v>125.3458048674201</v>
       </c>
       <c r="N42" t="n">
-        <v>570.3070539860551</v>
+        <v>138.1235567535068</v>
       </c>
       <c r="O42" t="n">
         <v>111.7673153789311</v>
       </c>
       <c r="P42" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q42" t="n">
-        <v>18.70371295079485</v>
+        <v>346.4242818187195</v>
       </c>
       <c r="R42" t="n">
-        <v>29.67555148406502</v>
+        <v>29.67555148406503</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>20.85975745584287</v>
+        <v>20.85975745584288</v>
       </c>
       <c r="K43" t="n">
         <v>166.362268485301</v>
@@ -37952,13 +37952,13 @@
         <v>295.2851346543798</v>
       </c>
       <c r="O43" t="n">
-        <v>266.177443331675</v>
+        <v>266.1774433316751</v>
       </c>
       <c r="P43" t="n">
         <v>208.2195029660587</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.78276761460484</v>
+        <v>63.78276761460485</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.424080792238</v>
+        <v>18.63336112380293</v>
       </c>
       <c r="K44" t="n">
-        <v>566.9065902803565</v>
+        <v>566.9065902803566</v>
       </c>
       <c r="L44" t="n">
         <v>100.2017504348281</v>
       </c>
       <c r="M44" t="n">
-        <v>132.2868191576468</v>
+        <v>132.2868191576469</v>
       </c>
       <c r="N44" t="n">
-        <v>570.3070539860551</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="O44" t="n">
-        <v>121.0409198672523</v>
+        <v>121.0409198672524</v>
       </c>
       <c r="P44" t="n">
-        <v>80.65345244491473</v>
+        <v>388.6588135199909</v>
       </c>
       <c r="Q44" t="n">
-        <v>341.0905182683442</v>
+        <v>360.1501983223255</v>
       </c>
       <c r="R44" t="n">
-        <v>63.27432146062289</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>195.4447653226019</v>
       </c>
       <c r="K45" t="n">
         <v>461.7307033744964</v>
       </c>
       <c r="L45" t="n">
-        <v>570.3070539860551</v>
+        <v>279.3664737064617</v>
       </c>
       <c r="M45" t="n">
-        <v>392.3281773165572</v>
+        <v>125.3458048674201</v>
       </c>
       <c r="N45" t="n">
         <v>138.1235567535068</v>
       </c>
       <c r="O45" t="n">
-        <v>570.3070539860551</v>
+        <v>111.7673153789311</v>
       </c>
       <c r="P45" t="n">
-        <v>77.00969684072828</v>
+        <v>570.3070539860549</v>
       </c>
       <c r="Q45" t="n">
-        <v>18.70371295079485</v>
+        <v>346.4242818187195</v>
       </c>
       <c r="R45" t="n">
-        <v>29.67555148406502</v>
+        <v>29.67555148406503</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.85975745584287</v>
+        <v>20.85975745584288</v>
       </c>
       <c r="K46" t="n">
         <v>166.362268485301</v>
@@ -38189,13 +38189,13 @@
         <v>295.2851346543798</v>
       </c>
       <c r="O46" t="n">
-        <v>266.177443331675</v>
+        <v>266.1774433316751</v>
       </c>
       <c r="P46" t="n">
         <v>208.2195029660587</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.78276761460484</v>
+        <v>63.78276761460485</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
